--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383539.2525173729</v>
+        <v>374671.3004588116</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24087788.23022275</v>
+        <v>24087788.23022276</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12503247.54566958</v>
+        <v>12503247.54566957</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4455855.669829492</v>
+        <v>4455855.669829493</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>82.27439735957438</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.162778549346982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.0407975444937</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>336.0914846445472</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -1463,7 +1463,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.8193006879558</v>
       </c>
       <c r="H12" t="n">
         <v>59.40725952933791</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>86.46117321646231</v>
       </c>
       <c r="T12" t="n">
-        <v>153.3110017963089</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>59.65101435059207</v>
+        <v>195.3048744063971</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>176.8510818822119</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>122.85255437646</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.9053676889628</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.42645982258125</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>118.0090684900397</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>16.37540828937303</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.5834053512592</v>
+        <v>204.8502102341223</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.162778549346953</v>
+        <v>6.162778549346982</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.9772930954111</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1697,10 +1697,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>68.17587497303013</v>
+        <v>104.8193006879558</v>
       </c>
       <c r="H15" t="n">
         <v>59.40725952933791</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>86.46117321646231</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>153.3110017963089</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3048744063971</v>
+        <v>178.4301808847571</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1751,7 +1751,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6549204715854</v>
+        <v>57.65311329948271</v>
       </c>
       <c r="H16" t="n">
-        <v>139.9053676889628</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.42645982258125</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.92005242082354</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.443058177009</v>
       </c>
       <c r="T16" t="n">
-        <v>48.17631298481695</v>
+        <v>233.2096666757965</v>
       </c>
       <c r="U16" t="n">
         <v>279.9198223415847</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.697430092137359</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.5834053512592</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.7270582357355</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.162778549346982</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.9772930954111</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.325279149898</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>64.26074168646564</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.8193006879558</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.40725952933791</v>
+        <v>43.04128732112768</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7.910145997584174</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.3110017963089</v>
@@ -2007,19 +2007,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.43598472778018</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6549204715854</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.9053676889628</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.92005242082354</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.443058177009</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.2096666757965</v>
@@ -2061,16 +2061,16 @@
         <v>279.9198223415847</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>200.555770208764</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>184.7983572121154</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>257.3924028682436</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.162778549346982</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.04079754449369</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.9772930954111</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -2174,10 +2174,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.8193006879558</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>59.40725952933791</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>56.40852001207622</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>153.3110017963089</v>
       </c>
       <c r="U21" t="n">
-        <v>108.142715458945</v>
+        <v>195.3048744063971</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>122.8525543764604</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>90.76760938410875</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.42645982258125</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.443058177009</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>233.2096666757965</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9198223415847</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>74.01171760629188</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.2775313912475</v>
@@ -2377,13 +2377,13 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>217.1896266125116</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>54.62755183040828</v>
+        <v>28.33627645607745</v>
       </c>
       <c r="H24" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
         <v>152.9662577680471</v>
@@ -2478,19 +2478,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>20.04755130785885</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>167.1934341018228</v>
+        <v>126.4451382194224</v>
       </c>
       <c r="T25" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.9830418746802</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>366.5698910564466</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>28.33627645607701</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>84.8724997021109</v>
+        <v>54.62755183040903</v>
       </c>
       <c r="T27" t="n">
         <v>152.9662577680471</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>26.98117527780516</v>
+        <v>142.8854088356259</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
         <v>279.9159111551209</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>301.9438610139207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.61960824055146</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>58.58122432777904</v>
+        <v>28.33627645607701</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
         <v>152.9662577680471</v>
@@ -2930,7 +2930,7 @@
         <v>195.2992474636072</v>
       </c>
       <c r="V30" t="n">
-        <v>161.4681924097562</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>94.81141474887244</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T31" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>239.1676152727203</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>400.9133792892189</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>206.598151524187</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.8724997021109</v>
+        <v>54.62755183040858</v>
       </c>
       <c r="T33" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
-        <v>118.901752762135</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S34" t="n">
-        <v>62.41453981090829</v>
+        <v>113.2702095233366</v>
       </c>
       <c r="T34" t="n">
         <v>232.9032904027983</v>
@@ -3271,19 +3271,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>141.7700565790581</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
-        <v>231.5585552929374</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7337711575492</v>
+        <v>28.33627645607657</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>102.8600384409065</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
         <v>195.2992474636072</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.0744134477029</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.806569152340992</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>114.0083697224752</v>
       </c>
       <c r="H38" t="n">
-        <v>223.2896626024772</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>8.475005000638978</v>
       </c>
       <c r="T39" t="n">
-        <v>102.860038440906</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U39" t="n">
         <v>195.2992474636072</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.8664457324129</v>
       </c>
       <c r="T40" t="n">
-        <v>134.810491974655</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U40" t="n">
         <v>279.9159111551209</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>301.6535185452668</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>133.235758379428</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>45.2762334619479</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>48.17234525006554</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T43" t="n">
         <v>232.9032904027983</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>92.0794217261197</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>206.9087586373399</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7337711575492</v>
+        <v>28.33627645607657</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
-        <v>118.901752762135</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4137,22 +4137,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T46" t="n">
-        <v>201.4487303919014</v>
+        <v>66.0770428947297</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>531.2914035806731</v>
+        <v>854.6592856506054</v>
       </c>
       <c r="C11" t="n">
-        <v>531.2914035806731</v>
+        <v>444.5346949638755</v>
       </c>
       <c r="D11" t="n">
-        <v>531.2914035806731</v>
+        <v>40.07076505693604</v>
       </c>
       <c r="E11" t="n">
-        <v>116.9511880975698</v>
+        <v>40.07076505693604</v>
       </c>
       <c r="F11" t="n">
-        <v>116.9511880975698</v>
+        <v>40.07076505693604</v>
       </c>
       <c r="G11" t="n">
-        <v>33.84573621921184</v>
+        <v>40.07076505693604</v>
       </c>
       <c r="H11" t="n">
-        <v>33.84573621921184</v>
+        <v>40.07076505693604</v>
       </c>
       <c r="I11" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="J11" t="n">
-        <v>134.1449032633585</v>
+        <v>134.1449032633586</v>
       </c>
       <c r="K11" t="n">
         <v>305.0164546752918</v>
       </c>
       <c r="L11" t="n">
-        <v>531.9429372503973</v>
+        <v>531.9429372503971</v>
       </c>
       <c r="M11" t="n">
-        <v>797.2684953322207</v>
+        <v>797.2684953322203</v>
       </c>
       <c r="N11" t="n">
-        <v>1068.755890726566</v>
+        <v>1068.755890726565</v>
       </c>
       <c r="O11" t="n">
-        <v>1319.712958916061</v>
+        <v>1319.71295891606</v>
       </c>
       <c r="P11" t="n">
-        <v>1519.926105170945</v>
+        <v>1519.926105170944</v>
       </c>
       <c r="Q11" t="n">
-        <v>1650.767877555647</v>
+        <v>1650.767877555646</v>
       </c>
       <c r="R11" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S11" t="n">
-        <v>1692.286810960592</v>
+        <v>1604.3668134409</v>
       </c>
       <c r="T11" t="n">
-        <v>1692.286810960592</v>
+        <v>1604.3668134409</v>
       </c>
       <c r="U11" t="n">
-        <v>1692.286810960592</v>
+        <v>1604.3668134409</v>
       </c>
       <c r="V11" t="n">
-        <v>1342.449256297072</v>
+        <v>1264.880465315095</v>
       </c>
       <c r="W11" t="n">
-        <v>1342.449256297072</v>
+        <v>1264.880465315095</v>
       </c>
       <c r="X11" t="n">
-        <v>1342.449256297072</v>
+        <v>1264.880465315095</v>
       </c>
       <c r="Y11" t="n">
-        <v>941.5125832451625</v>
+        <v>1264.880465315095</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.1979939339583</v>
+        <v>680.0760754369439</v>
       </c>
       <c r="C12" t="n">
-        <v>440.2029226829039</v>
+        <v>546.0810041858896</v>
       </c>
       <c r="D12" t="n">
-        <v>323.3057649022963</v>
+        <v>429.183846405282</v>
       </c>
       <c r="E12" t="n">
-        <v>202.8129488946244</v>
+        <v>308.69103039761</v>
       </c>
       <c r="F12" t="n">
-        <v>93.85306907712892</v>
+        <v>199.7311505801146</v>
       </c>
       <c r="G12" t="n">
-        <v>93.85306907712892</v>
+        <v>93.85306907712891</v>
       </c>
       <c r="H12" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="I12" t="n">
-        <v>51.03516826756584</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="J12" t="n">
-        <v>103.1514370233955</v>
+        <v>227.2527335520556</v>
       </c>
       <c r="K12" t="n">
-        <v>521.9924227361419</v>
+        <v>347.980441826519</v>
       </c>
       <c r="L12" t="n">
-        <v>793.5089639995265</v>
+        <v>529.074373493944</v>
       </c>
       <c r="M12" t="n">
-        <v>1012.676572216246</v>
+        <v>748.2419817106636</v>
       </c>
       <c r="N12" t="n">
-        <v>1243.480396059768</v>
+        <v>979.0458055541856</v>
       </c>
       <c r="O12" t="n">
-        <v>1445.621786634098</v>
+        <v>1181.187196128516</v>
       </c>
       <c r="P12" t="n">
-        <v>1600.028181841263</v>
+        <v>1600.028181841262</v>
       </c>
       <c r="Q12" t="n">
-        <v>1683.02749340451</v>
+        <v>1683.027493404509</v>
       </c>
       <c r="R12" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S12" t="n">
-        <v>1692.286810960592</v>
+        <v>1604.952292560124</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.427213186542</v>
+        <v>1604.952292560124</v>
       </c>
       <c r="U12" t="n">
-        <v>1477.173663337459</v>
+        <v>1407.674641644571</v>
       </c>
       <c r="V12" t="n">
-        <v>1263.462136330493</v>
+        <v>1229.037185197893</v>
       </c>
       <c r="W12" t="n">
-        <v>1050.228968066822</v>
+        <v>1015.804016934221</v>
       </c>
       <c r="X12" t="n">
-        <v>873.9029862057149</v>
+        <v>839.4780350731139</v>
       </c>
       <c r="Y12" t="n">
-        <v>714.5010265695449</v>
+        <v>680.0760754369439</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.4738448167311</v>
+        <v>157.9392254883633</v>
       </c>
       <c r="C13" t="n">
-        <v>263.4738448167311</v>
+        <v>157.9392254883633</v>
       </c>
       <c r="D13" t="n">
-        <v>263.4738448167311</v>
+        <v>157.9392254883633</v>
       </c>
       <c r="E13" t="n">
-        <v>263.4738448167311</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="F13" t="n">
-        <v>263.4738448167311</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="G13" t="n">
-        <v>263.4738448167311</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="H13" t="n">
-        <v>122.1552915955565</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="I13" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="J13" t="n">
-        <v>112.5294933064427</v>
+        <v>52.35655077067287</v>
       </c>
       <c r="K13" t="n">
-        <v>166.9612563713733</v>
+        <v>313.0685074213176</v>
       </c>
       <c r="L13" t="n">
-        <v>562.7061321987863</v>
+        <v>394.8342720137075</v>
       </c>
       <c r="M13" t="n">
-        <v>981.5471179115327</v>
+        <v>813.6752577264538</v>
       </c>
       <c r="N13" t="n">
-        <v>1400.388103624279</v>
+        <v>1232.5162434392</v>
       </c>
       <c r="O13" t="n">
-        <v>1621.229428928341</v>
+        <v>1621.22942892834</v>
       </c>
       <c r="P13" t="n">
-        <v>1676.519725553311</v>
+        <v>1676.51972555331</v>
       </c>
       <c r="Q13" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="R13" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S13" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="T13" t="n">
-        <v>1456.72149108605</v>
+        <v>1456.721491086049</v>
       </c>
       <c r="U13" t="n">
-        <v>1173.97419579152</v>
+        <v>1173.974195791519</v>
       </c>
       <c r="V13" t="n">
-        <v>900.0884507310418</v>
+        <v>900.0884507310409</v>
       </c>
       <c r="W13" t="n">
-        <v>621.0187862399162</v>
+        <v>621.0187862399152</v>
       </c>
       <c r="X13" t="n">
-        <v>382.6749240995995</v>
+        <v>382.6749240995986</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.4738448167311</v>
+        <v>157.9392254883633</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1282.065631296102</v>
+        <v>668.0205813801397</v>
       </c>
       <c r="C14" t="n">
-        <v>1265.52481484219</v>
+        <v>668.0205813801397</v>
       </c>
       <c r="D14" t="n">
-        <v>861.0608849352507</v>
+        <v>668.0205813801397</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7206694521473</v>
+        <v>668.0205813801397</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7206694521473</v>
+        <v>246.9901693338272</v>
       </c>
       <c r="G14" t="n">
-        <v>40.07076505693603</v>
+        <v>40.07076505693604</v>
       </c>
       <c r="H14" t="n">
-        <v>40.07076505693603</v>
+        <v>40.07076505693604</v>
       </c>
       <c r="I14" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="J14" t="n">
-        <v>134.1449032633587</v>
+        <v>134.1449032633586</v>
       </c>
       <c r="K14" t="n">
-        <v>305.016454675292</v>
+        <v>305.0164546752918</v>
       </c>
       <c r="L14" t="n">
-        <v>531.9429372503973</v>
+        <v>531.9429372503971</v>
       </c>
       <c r="M14" t="n">
-        <v>797.2684953322207</v>
+        <v>797.2684953322203</v>
       </c>
       <c r="N14" t="n">
-        <v>1068.755890726566</v>
+        <v>1068.755890726565</v>
       </c>
       <c r="O14" t="n">
-        <v>1319.712958916061</v>
+        <v>1319.71295891606</v>
       </c>
       <c r="P14" t="n">
-        <v>1519.926105170945</v>
+        <v>1519.926105170944</v>
       </c>
       <c r="Q14" t="n">
-        <v>1650.767877555647</v>
+        <v>1650.767877555646</v>
       </c>
       <c r="R14" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S14" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="T14" t="n">
-        <v>1692.286810960592</v>
+        <v>1479.178434096539</v>
       </c>
       <c r="U14" t="n">
-        <v>1692.286810960592</v>
+        <v>1479.178434096539</v>
       </c>
       <c r="V14" t="n">
-        <v>1692.286810960592</v>
+        <v>1479.178434096539</v>
       </c>
       <c r="W14" t="n">
-        <v>1692.286810960592</v>
+        <v>1479.178434096539</v>
       </c>
       <c r="X14" t="n">
-        <v>1692.286810960592</v>
+        <v>1479.178434096539</v>
       </c>
       <c r="Y14" t="n">
-        <v>1692.286810960592</v>
+        <v>1078.241761044629</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>526.1653563281286</v>
+        <v>454.219037838841</v>
       </c>
       <c r="C15" t="n">
-        <v>392.1702850770743</v>
+        <v>320.2239665877867</v>
       </c>
       <c r="D15" t="n">
-        <v>392.1702850770743</v>
+        <v>320.2239665877867</v>
       </c>
       <c r="E15" t="n">
-        <v>271.6774690694023</v>
+        <v>199.7311505801146</v>
       </c>
       <c r="F15" t="n">
-        <v>162.7175892519068</v>
+        <v>199.7311505801146</v>
       </c>
       <c r="G15" t="n">
-        <v>93.85306907712892</v>
+        <v>93.85306907712891</v>
       </c>
       <c r="H15" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="I15" t="n">
-        <v>33.84573621921184</v>
+        <v>51.03516826756579</v>
       </c>
       <c r="J15" t="n">
-        <v>85.96200497504148</v>
+        <v>155.8456499081388</v>
       </c>
       <c r="K15" t="n">
-        <v>395.7154371936852</v>
+        <v>276.5733581826022</v>
       </c>
       <c r="L15" t="n">
-        <v>576.8093688611102</v>
+        <v>457.6672898500271</v>
       </c>
       <c r="M15" t="n">
-        <v>795.9769770778299</v>
+        <v>676.8348980667467</v>
       </c>
       <c r="N15" t="n">
-        <v>1026.780800921352</v>
+        <v>907.6387219102687</v>
       </c>
       <c r="O15" t="n">
-        <v>1445.621786634098</v>
+        <v>1109.780112484599</v>
       </c>
       <c r="P15" t="n">
-        <v>1600.028181841263</v>
+        <v>1264.186507691763</v>
       </c>
       <c r="Q15" t="n">
-        <v>1683.02749340451</v>
+        <v>1683.027493404509</v>
       </c>
       <c r="R15" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S15" t="n">
-        <v>1604.952292560125</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="T15" t="n">
-        <v>1450.092694786075</v>
+        <v>1537.427213186541</v>
       </c>
       <c r="U15" t="n">
-        <v>1252.815043870523</v>
+        <v>1357.194707242342</v>
       </c>
       <c r="V15" t="n">
-        <v>1039.103516863556</v>
+        <v>1143.483180235376</v>
       </c>
       <c r="W15" t="n">
-        <v>825.8703485998852</v>
+        <v>930.2500119717049</v>
       </c>
       <c r="X15" t="n">
-        <v>825.8703485998852</v>
+        <v>753.9240301105976</v>
       </c>
       <c r="Y15" t="n">
-        <v>666.4683889637153</v>
+        <v>594.5220704744277</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>594.4230721925898</v>
+        <v>263.1745766367708</v>
       </c>
       <c r="C16" t="n">
-        <v>594.4230721925898</v>
+        <v>92.08120419848728</v>
       </c>
       <c r="D16" t="n">
-        <v>594.4230721925898</v>
+        <v>92.08120419848728</v>
       </c>
       <c r="E16" t="n">
-        <v>594.4230721925898</v>
+        <v>92.08120419848728</v>
       </c>
       <c r="F16" t="n">
-        <v>429.791946303181</v>
+        <v>92.08120419848728</v>
       </c>
       <c r="G16" t="n">
-        <v>263.4738448167311</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="H16" t="n">
-        <v>122.1552915955565</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="I16" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921182</v>
       </c>
       <c r="J16" t="n">
-        <v>47.52812967510628</v>
+        <v>47.52812967510623</v>
       </c>
       <c r="K16" t="n">
-        <v>101.9598927400369</v>
+        <v>101.9598927400368</v>
       </c>
       <c r="L16" t="n">
-        <v>394.834272013708</v>
+        <v>183.7256573324267</v>
       </c>
       <c r="M16" t="n">
-        <v>813.6752577264544</v>
+        <v>602.566643045173</v>
       </c>
       <c r="N16" t="n">
-        <v>1232.516243439201</v>
+        <v>1021.407628757919</v>
       </c>
       <c r="O16" t="n">
-        <v>1621.229428928341</v>
+        <v>1410.120814247059</v>
       </c>
       <c r="P16" t="n">
-        <v>1676.519725553311</v>
+        <v>1676.51972555331</v>
       </c>
       <c r="Q16" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="R16" t="n">
-        <v>1648.93322265673</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S16" t="n">
-        <v>1478.78871944763</v>
+        <v>1522.142307751491</v>
       </c>
       <c r="T16" t="n">
-        <v>1430.125777038724</v>
+        <v>1286.576987876949</v>
       </c>
       <c r="U16" t="n">
-        <v>1147.378481744194</v>
+        <v>1003.829692582419</v>
       </c>
       <c r="V16" t="n">
-        <v>873.4927366837154</v>
+        <v>729.9439475219408</v>
       </c>
       <c r="W16" t="n">
-        <v>594.4230721925898</v>
+        <v>450.8742830308151</v>
       </c>
       <c r="X16" t="n">
-        <v>594.4230721925898</v>
+        <v>450.8742830308151</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.4230721925898</v>
+        <v>450.8742830308151</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1282.065631296102</v>
+        <v>1157.374372645667</v>
       </c>
       <c r="C17" t="n">
-        <v>871.9410406093724</v>
+        <v>1157.374372645667</v>
       </c>
       <c r="D17" t="n">
-        <v>869.2163637486276</v>
+        <v>1157.374372645667</v>
       </c>
       <c r="E17" t="n">
-        <v>454.8761482655243</v>
+        <v>1157.374372645667</v>
       </c>
       <c r="F17" t="n">
-        <v>33.84573621921184</v>
+        <v>736.343960599355</v>
       </c>
       <c r="G17" t="n">
-        <v>33.84573621921184</v>
+        <v>329.6940562041437</v>
       </c>
       <c r="H17" t="n">
-        <v>33.84573621921184</v>
+        <v>40.07076505693605</v>
       </c>
       <c r="I17" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="J17" t="n">
-        <v>134.1449032633587</v>
+        <v>134.1449032633584</v>
       </c>
       <c r="K17" t="n">
-        <v>305.016454675292</v>
+        <v>305.0164546752917</v>
       </c>
       <c r="L17" t="n">
-        <v>531.9429372503973</v>
+        <v>531.9429372503971</v>
       </c>
       <c r="M17" t="n">
-        <v>797.2684953322206</v>
+        <v>797.2684953322203</v>
       </c>
       <c r="N17" t="n">
-        <v>1068.755890726566</v>
+        <v>1068.755890726565</v>
       </c>
       <c r="O17" t="n">
-        <v>1319.712958916061</v>
+        <v>1319.71295891606</v>
       </c>
       <c r="P17" t="n">
-        <v>1519.926105170945</v>
+        <v>1519.926105170944</v>
       </c>
       <c r="Q17" t="n">
-        <v>1650.767877555647</v>
+        <v>1650.767877555646</v>
       </c>
       <c r="R17" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S17" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="T17" t="n">
-        <v>1692.286810960592</v>
+        <v>1479.17843409654</v>
       </c>
       <c r="U17" t="n">
-        <v>1692.286810960592</v>
+        <v>1222.284212733006</v>
       </c>
       <c r="V17" t="n">
-        <v>1692.286810960592</v>
+        <v>1157.374372645667</v>
       </c>
       <c r="W17" t="n">
-        <v>1692.286810960592</v>
+        <v>1157.374372645667</v>
       </c>
       <c r="X17" t="n">
-        <v>1692.286810960592</v>
+        <v>1157.374372645667</v>
       </c>
       <c r="Y17" t="n">
-        <v>1692.286810960592</v>
+        <v>1157.374372645667</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>429.183846405282</v>
+        <v>437.173892867488</v>
       </c>
       <c r="C18" t="n">
-        <v>429.183846405282</v>
+        <v>303.1788216164337</v>
       </c>
       <c r="D18" t="n">
-        <v>429.183846405282</v>
+        <v>186.2816638358261</v>
       </c>
       <c r="E18" t="n">
-        <v>308.69103039761</v>
+        <v>186.2816638358261</v>
       </c>
       <c r="F18" t="n">
-        <v>199.7311505801146</v>
+        <v>77.3217840183307</v>
       </c>
       <c r="G18" t="n">
-        <v>93.85306907712892</v>
+        <v>77.3217840183307</v>
       </c>
       <c r="H18" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="I18" t="n">
-        <v>51.03516826756584</v>
+        <v>51.03516826756581</v>
       </c>
       <c r="J18" t="n">
-        <v>103.1514370233955</v>
+        <v>346.8198409980287</v>
       </c>
       <c r="K18" t="n">
-        <v>374.6679782867801</v>
+        <v>467.5475492724921</v>
       </c>
       <c r="L18" t="n">
-        <v>793.5089639995265</v>
+        <v>648.6414809399171</v>
       </c>
       <c r="M18" t="n">
-        <v>1012.676572216246</v>
+        <v>867.8090891566367</v>
       </c>
       <c r="N18" t="n">
-        <v>1243.480396059768</v>
+        <v>1098.612913000159</v>
       </c>
       <c r="O18" t="n">
-        <v>1445.621786634098</v>
+        <v>1300.754303574489</v>
       </c>
       <c r="P18" t="n">
-        <v>1600.028181841263</v>
+        <v>1512.058465364281</v>
       </c>
       <c r="Q18" t="n">
-        <v>1683.02749340451</v>
+        <v>1595.057776927528</v>
       </c>
       <c r="R18" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S18" t="n">
-        <v>1684.296764498386</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="T18" t="n">
-        <v>1529.437166724336</v>
+        <v>1537.427213186542</v>
       </c>
       <c r="U18" t="n">
-        <v>1332.159515808783</v>
+        <v>1340.149562270989</v>
       </c>
       <c r="V18" t="n">
-        <v>1118.447988801817</v>
+        <v>1126.438035264023</v>
       </c>
       <c r="W18" t="n">
-        <v>905.2148205381459</v>
+        <v>913.2048670003518</v>
       </c>
       <c r="X18" t="n">
-        <v>728.8888386770386</v>
+        <v>736.8788851392446</v>
       </c>
       <c r="Y18" t="n">
-        <v>569.4868790408686</v>
+        <v>577.4769255030747</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>204.9391086574953</v>
+        <v>710.8946350399675</v>
       </c>
       <c r="C19" t="n">
-        <v>33.84573621921184</v>
+        <v>539.801262601684</v>
       </c>
       <c r="D19" t="n">
-        <v>33.84573621921184</v>
+        <v>380.306617924594</v>
       </c>
       <c r="E19" t="n">
-        <v>33.84573621921184</v>
+        <v>341.4823909268363</v>
       </c>
       <c r="F19" t="n">
-        <v>33.84573621921184</v>
+        <v>341.4823909268363</v>
       </c>
       <c r="G19" t="n">
-        <v>33.84573621921184</v>
+        <v>175.1642894403864</v>
       </c>
       <c r="H19" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="I19" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="J19" t="n">
-        <v>47.52812967510628</v>
+        <v>47.52812967510624</v>
       </c>
       <c r="K19" t="n">
-        <v>101.9598927400369</v>
+        <v>308.240086325751</v>
       </c>
       <c r="L19" t="n">
-        <v>394.834272013708</v>
+        <v>703.9849621531639</v>
       </c>
       <c r="M19" t="n">
-        <v>813.6752577264544</v>
+        <v>791.5151011304293</v>
       </c>
       <c r="N19" t="n">
-        <v>1232.516243439201</v>
+        <v>880.1462670342046</v>
       </c>
       <c r="O19" t="n">
-        <v>1621.229428928341</v>
+        <v>1268.859452523345</v>
       </c>
       <c r="P19" t="n">
-        <v>1676.519725553311</v>
+        <v>1585.047232621433</v>
       </c>
       <c r="Q19" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="R19" t="n">
-        <v>1648.93322265673</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S19" t="n">
-        <v>1478.78871944763</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="T19" t="n">
-        <v>1243.223399573088</v>
+        <v>1456.721491086049</v>
       </c>
       <c r="U19" t="n">
-        <v>960.4761042785576</v>
+        <v>1173.974195791519</v>
       </c>
       <c r="V19" t="n">
-        <v>686.5903592180796</v>
+        <v>1173.974195791519</v>
       </c>
       <c r="W19" t="n">
-        <v>407.5206947269539</v>
+        <v>1173.974195791519</v>
       </c>
       <c r="X19" t="n">
-        <v>204.9391086574953</v>
+        <v>935.6303336512028</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.9391086574953</v>
+        <v>710.8946350399675</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>631.1997022488406</v>
+        <v>293.8380623487509</v>
       </c>
       <c r="C20" t="n">
-        <v>631.1997022488406</v>
+        <v>293.8380623487509</v>
       </c>
       <c r="D20" t="n">
-        <v>226.7357723419011</v>
+        <v>293.8380623487509</v>
       </c>
       <c r="E20" t="n">
-        <v>40.07076505693606</v>
+        <v>293.8380623487509</v>
       </c>
       <c r="F20" t="n">
-        <v>40.07076505693606</v>
+        <v>293.8380623487509</v>
       </c>
       <c r="G20" t="n">
-        <v>40.07076505693606</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="H20" t="n">
-        <v>40.07076505693606</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="I20" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="J20" t="n">
-        <v>134.1449032633591</v>
+        <v>134.1449032633587</v>
       </c>
       <c r="K20" t="n">
-        <v>305.0164546752924</v>
+        <v>305.0164546752919</v>
       </c>
       <c r="L20" t="n">
-        <v>531.942937250398</v>
+        <v>531.9429372503972</v>
       </c>
       <c r="M20" t="n">
-        <v>797.2684953322212</v>
+        <v>797.2684953322205</v>
       </c>
       <c r="N20" t="n">
         <v>1068.755890726566</v>
       </c>
       <c r="O20" t="n">
-        <v>1319.712958916061</v>
+        <v>1319.71295891606</v>
       </c>
       <c r="P20" t="n">
-        <v>1519.926105170945</v>
+        <v>1519.926105170944</v>
       </c>
       <c r="Q20" t="n">
-        <v>1650.767877555647</v>
+        <v>1650.767877555646</v>
       </c>
       <c r="R20" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S20" t="n">
-        <v>1604.366813440901</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="T20" t="n">
-        <v>1391.258436576849</v>
+        <v>1479.17843409654</v>
       </c>
       <c r="U20" t="n">
-        <v>1391.258436576849</v>
+        <v>1479.17843409654</v>
       </c>
       <c r="V20" t="n">
-        <v>1041.42088191333</v>
+        <v>1479.17843409654</v>
       </c>
       <c r="W20" t="n">
-        <v>1041.42088191333</v>
+        <v>1095.418133231708</v>
       </c>
       <c r="X20" t="n">
-        <v>1041.42088191333</v>
+        <v>694.7747354006608</v>
       </c>
       <c r="Y20" t="n">
-        <v>1041.42088191333</v>
+        <v>293.8380623487509</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>680.0760754369439</v>
+        <v>380.1955898249869</v>
       </c>
       <c r="C21" t="n">
-        <v>546.0810041858896</v>
+        <v>380.1955898249869</v>
       </c>
       <c r="D21" t="n">
-        <v>429.183846405282</v>
+        <v>263.2984320443793</v>
       </c>
       <c r="E21" t="n">
-        <v>308.69103039761</v>
+        <v>142.8056160367072</v>
       </c>
       <c r="F21" t="n">
-        <v>199.7311505801146</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="G21" t="n">
-        <v>93.85306907712892</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="H21" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="I21" t="n">
-        <v>51.03516826756582</v>
+        <v>51.03516826756581</v>
       </c>
       <c r="J21" t="n">
-        <v>103.1514370233954</v>
+        <v>346.8198409980287</v>
       </c>
       <c r="K21" t="n">
-        <v>223.8791452978589</v>
+        <v>524.4453158551203</v>
       </c>
       <c r="L21" t="n">
-        <v>404.9730769652838</v>
+        <v>705.5392475225452</v>
       </c>
       <c r="M21" t="n">
-        <v>624.1406851820035</v>
+        <v>924.7068557392649</v>
       </c>
       <c r="N21" t="n">
-        <v>854.9445090255256</v>
+        <v>1155.510679582787</v>
       </c>
       <c r="O21" t="n">
-        <v>1109.780112484599</v>
+        <v>1357.652070157117</v>
       </c>
       <c r="P21" t="n">
-        <v>1264.186507691764</v>
+        <v>1512.058465364281</v>
       </c>
       <c r="Q21" t="n">
-        <v>1683.02749340451</v>
+        <v>1595.057776927528</v>
       </c>
       <c r="R21" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S21" t="n">
-        <v>1692.286810960592</v>
+        <v>1635.30850791809</v>
       </c>
       <c r="T21" t="n">
-        <v>1692.286810960592</v>
+        <v>1480.448910144041</v>
       </c>
       <c r="U21" t="n">
-        <v>1583.051744840445</v>
+        <v>1283.171259228488</v>
       </c>
       <c r="V21" t="n">
-        <v>1369.340217833479</v>
+        <v>1069.459732221522</v>
       </c>
       <c r="W21" t="n">
-        <v>1156.107049569808</v>
+        <v>856.2265639578507</v>
       </c>
       <c r="X21" t="n">
-        <v>979.7810677087006</v>
+        <v>679.9005820967435</v>
       </c>
       <c r="Y21" t="n">
-        <v>820.3791080725306</v>
+        <v>520.4986224605735</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.4277626342722</v>
+        <v>157.9392254883638</v>
       </c>
       <c r="C22" t="n">
-        <v>373.3343901959887</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="D22" t="n">
-        <v>213.8397455188987</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="E22" t="n">
-        <v>213.8397455188987</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="F22" t="n">
-        <v>122.1552915955565</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="G22" t="n">
-        <v>122.1552915955565</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="H22" t="n">
-        <v>122.1552915955565</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="I22" t="n">
-        <v>33.84573621921184</v>
+        <v>33.84573621921183</v>
       </c>
       <c r="J22" t="n">
-        <v>47.52812967510626</v>
+        <v>112.5294933064426</v>
       </c>
       <c r="K22" t="n">
-        <v>101.9598927400368</v>
+        <v>373.2414499570874</v>
       </c>
       <c r="L22" t="n">
-        <v>394.834272013708</v>
+        <v>768.9863257845004</v>
       </c>
       <c r="M22" t="n">
-        <v>813.6752577264544</v>
+        <v>882.9875940623073</v>
       </c>
       <c r="N22" t="n">
-        <v>1232.516243439201</v>
+        <v>971.6187599660825</v>
       </c>
       <c r="O22" t="n">
-        <v>1621.229428928341</v>
+        <v>1360.331945455222</v>
       </c>
       <c r="P22" t="n">
         <v>1676.519725553311</v>
       </c>
       <c r="Q22" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="R22" t="n">
-        <v>1692.286810960592</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="S22" t="n">
-        <v>1522.142307751492</v>
+        <v>1692.286810960591</v>
       </c>
       <c r="T22" t="n">
-        <v>1286.57698787695</v>
+        <v>1456.721491086049</v>
       </c>
       <c r="U22" t="n">
-        <v>1286.57698787695</v>
+        <v>1173.974195791519</v>
       </c>
       <c r="V22" t="n">
-        <v>1286.57698787695</v>
+        <v>900.0884507310413</v>
       </c>
       <c r="W22" t="n">
-        <v>1007.507323385824</v>
+        <v>621.0187862399157</v>
       </c>
       <c r="X22" t="n">
-        <v>769.1634612455075</v>
+        <v>382.6749240995991</v>
       </c>
       <c r="Y22" t="n">
-        <v>544.4277626342722</v>
+        <v>157.9392254883638</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>923.4556808749498</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="C23" t="n">
-        <v>923.4556808749498</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="D23" t="n">
-        <v>518.9917509680104</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E23" t="n">
         <v>444.2324402545842</v>
@@ -5980,61 +5980,61 @@
         <v>444.2324402545842</v>
       </c>
       <c r="G23" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H23" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526221</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J23" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987902</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L23" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655642</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N23" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O23" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P23" t="n">
-        <v>1687.808675484973</v>
+        <v>1687.808675484974</v>
       </c>
       <c r="Q23" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R23" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S23" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="T23" t="n">
-        <v>1590.558164392902</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U23" t="n">
-        <v>1333.676860539439</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V23" t="n">
-        <v>1333.676860539439</v>
+        <v>1068.079831386283</v>
       </c>
       <c r="W23" t="n">
-        <v>1333.676860539439</v>
+        <v>1068.079831386283</v>
       </c>
       <c r="X23" t="n">
-        <v>1333.676860539439</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="Y23" t="n">
-        <v>1333.676860539439</v>
+        <v>848.6963701615236</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>632.4412287417757</v>
+        <v>546.7114310628768</v>
       </c>
       <c r="C24" t="n">
-        <v>498.4461574907214</v>
+        <v>412.7163598118225</v>
       </c>
       <c r="D24" t="n">
-        <v>381.5489997101138</v>
+        <v>295.819202031215</v>
       </c>
       <c r="E24" t="n">
-        <v>261.0561837024418</v>
+        <v>175.3263860235429</v>
       </c>
       <c r="F24" t="n">
-        <v>152.0963038849464</v>
+        <v>66.36650620604752</v>
       </c>
       <c r="G24" t="n">
-        <v>96.91695860170567</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H24" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I24" t="n">
-        <v>57.84875584306885</v>
+        <v>57.84875584306887</v>
       </c>
       <c r="J24" t="n">
         <v>361.6332868996043</v>
       </c>
       <c r="K24" t="n">
-        <v>496.0340272520128</v>
+        <v>693.0854602047139</v>
       </c>
       <c r="L24" t="n">
-        <v>695.5130379051964</v>
+        <v>892.5644708578973</v>
       </c>
       <c r="M24" t="n">
-        <v>936.1351661301428</v>
+        <v>1133.186599082844</v>
       </c>
       <c r="N24" t="n">
-        <v>1188.961347286593</v>
+        <v>1386.012780239294</v>
       </c>
       <c r="O24" t="n">
-        <v>1411.248892385525</v>
+        <v>1608.300325338226</v>
       </c>
       <c r="P24" t="n">
-        <v>1581.82435271504</v>
+        <v>1778.875785667741</v>
       </c>
       <c r="Q24" t="n">
-        <v>1784.713972589204</v>
+        <v>1872.683689066187</v>
       </c>
       <c r="R24" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S24" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.470439084211</v>
       </c>
       <c r="T24" t="n">
-        <v>1732.688865280234</v>
+        <v>1646.959067601335</v>
       </c>
       <c r="U24" t="n">
-        <v>1535.416898145277</v>
+        <v>1449.687100466378</v>
       </c>
       <c r="V24" t="n">
-        <v>1321.705371138311</v>
+        <v>1235.975573459412</v>
       </c>
       <c r="W24" t="n">
-        <v>1108.47220287464</v>
+        <v>1022.742405195741</v>
       </c>
       <c r="X24" t="n">
-        <v>932.1462210135323</v>
+        <v>846.4164233346335</v>
       </c>
       <c r="Y24" t="n">
-        <v>772.7442613773624</v>
+        <v>687.0144636984635</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>553.2131995661645</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="C25" t="n">
-        <v>382.119827127881</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="D25" t="n">
-        <v>222.625182450791</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="E25" t="n">
-        <v>222.625182450791</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="F25" t="n">
-        <v>57.99405656138225</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G25" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H25" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I25" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J25" t="n">
-        <v>121.4466158487821</v>
+        <v>56.44525221744571</v>
       </c>
       <c r="K25" t="n">
-        <v>184.1258978099418</v>
+        <v>119.1245341786055</v>
       </c>
       <c r="L25" t="n">
-        <v>590.4247583031554</v>
+        <v>525.4233946718191</v>
       </c>
       <c r="M25" t="n">
-        <v>1034.04894384695</v>
+        <v>969.0475802156142</v>
       </c>
       <c r="N25" t="n">
-        <v>1465.577516486279</v>
+        <v>1400.576152854943</v>
       </c>
       <c r="O25" t="n">
-        <v>1801.612894797479</v>
+        <v>1799.323174322062</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>1865.48887150034</v>
       </c>
       <c r="Q25" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="R25" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S25" t="n">
-        <v>1718.317980094602</v>
+        <v>1759.47787492531</v>
       </c>
       <c r="T25" t="n">
-        <v>1483.062131202886</v>
+        <v>1524.222026033595</v>
       </c>
       <c r="U25" t="n">
-        <v>1483.062131202886</v>
+        <v>1241.478681432462</v>
       </c>
       <c r="V25" t="n">
-        <v>1483.062131202886</v>
+        <v>967.5929363719843</v>
       </c>
       <c r="W25" t="n">
-        <v>1203.992466711761</v>
+        <v>688.5232718808586</v>
       </c>
       <c r="X25" t="n">
-        <v>965.6486045714441</v>
+        <v>450.1794097405419</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.9129059602088</v>
+        <v>225.4437111293066</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1537.362682099591</v>
+        <v>442.2079346422017</v>
       </c>
       <c r="C26" t="n">
-        <v>1127.238091412861</v>
+        <v>442.2079346422017</v>
       </c>
       <c r="D26" t="n">
-        <v>722.7741615059213</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="E26" t="n">
-        <v>308.433946022818</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="F26" t="n">
-        <v>308.433946022818</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G26" t="n">
-        <v>308.433946022818</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H26" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526262</v>
+        <v>37.74400473526271</v>
       </c>
       <c r="J26" t="n">
-        <v>151.4749218512235</v>
+        <v>151.4749218512236</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987907</v>
+        <v>342.4771847987909</v>
       </c>
       <c r="L26" t="n">
         <v>594.3775951131302</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582614</v>
@@ -6250,28 +6250,28 @@
         <v>1835.740277181655</v>
       </c>
       <c r="R26" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S26" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="T26" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="U26" t="n">
-        <v>1887.20023676311</v>
+        <v>1546.078407399286</v>
       </c>
       <c r="V26" t="n">
-        <v>1537.362682099591</v>
+        <v>1196.240852735767</v>
       </c>
       <c r="W26" t="n">
-        <v>1537.362682099591</v>
+        <v>812.4805518709356</v>
       </c>
       <c r="X26" t="n">
-        <v>1537.362682099591</v>
+        <v>442.2079346422017</v>
       </c>
       <c r="Y26" t="n">
-        <v>1537.362682099591</v>
+        <v>442.2079346422017</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>546.7114310628764</v>
+        <v>577.2618834585351</v>
       </c>
       <c r="C27" t="n">
-        <v>412.7163598118221</v>
+        <v>443.2668122074807</v>
       </c>
       <c r="D27" t="n">
-        <v>295.8192020312145</v>
+        <v>326.3696544268731</v>
       </c>
       <c r="E27" t="n">
-        <v>175.3263860235425</v>
+        <v>205.8768384192011</v>
       </c>
       <c r="F27" t="n">
-        <v>66.36650620604706</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="G27" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H27" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28095199337146</v>
+        <v>57.84875584306887</v>
       </c>
       <c r="J27" t="n">
-        <v>98.39707907527369</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K27" t="n">
-        <v>232.7978194276822</v>
+        <v>496.0340272520128</v>
       </c>
       <c r="L27" t="n">
-        <v>699.879878026552</v>
+        <v>695.5130379051964</v>
       </c>
       <c r="M27" t="n">
-        <v>940.5020062514984</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N27" t="n">
-        <v>1193.328187407948</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O27" t="n">
-        <v>1608.300325338226</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P27" t="n">
-        <v>1778.87578566774</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q27" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R27" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S27" t="n">
-        <v>1801.47043908421</v>
+        <v>1832.020891479869</v>
       </c>
       <c r="T27" t="n">
-        <v>1646.959067601334</v>
+        <v>1677.509519996993</v>
       </c>
       <c r="U27" t="n">
-        <v>1449.687100466378</v>
+        <v>1480.237552862036</v>
       </c>
       <c r="V27" t="n">
-        <v>1235.975573459411</v>
+        <v>1266.52602585507</v>
       </c>
       <c r="W27" t="n">
-        <v>1022.74240519574</v>
+        <v>1053.292857591399</v>
       </c>
       <c r="X27" t="n">
-        <v>846.416423334633</v>
+        <v>876.9668757302917</v>
       </c>
       <c r="Y27" t="n">
-        <v>687.014463698463</v>
+        <v>717.5649160941217</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>400.7222154647778</v>
+        <v>353.1660729671072</v>
       </c>
       <c r="C28" t="n">
-        <v>229.6288430264943</v>
+        <v>182.0727005288237</v>
       </c>
       <c r="D28" t="n">
-        <v>229.6288430264943</v>
+        <v>182.0727005288237</v>
       </c>
       <c r="E28" t="n">
-        <v>229.6288430264943</v>
+        <v>182.0727005288237</v>
       </c>
       <c r="F28" t="n">
-        <v>64.9977171370856</v>
+        <v>182.0727005288237</v>
       </c>
       <c r="G28" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H28" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J28" t="n">
-        <v>56.4452522174457</v>
+        <v>56.44525221744571</v>
       </c>
       <c r="K28" t="n">
-        <v>119.1245341786054</v>
+        <v>119.1245341786055</v>
       </c>
       <c r="L28" t="n">
-        <v>266.8156316741187</v>
+        <v>525.4233946718191</v>
       </c>
       <c r="M28" t="n">
-        <v>710.4398172179137</v>
+        <v>969.0475802156142</v>
       </c>
       <c r="N28" t="n">
-        <v>1141.968389857242</v>
+        <v>1400.576152854943</v>
       </c>
       <c r="O28" t="n">
-        <v>1540.715411324361</v>
+        <v>1799.323174322062</v>
       </c>
       <c r="P28" t="n">
-        <v>1865.488871500339</v>
+        <v>1865.48887150034</v>
       </c>
       <c r="Q28" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="R28" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S28" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="T28" t="n">
-        <v>1887.20023676311</v>
+        <v>1651.944387871395</v>
       </c>
       <c r="U28" t="n">
-        <v>1604.456892161978</v>
+        <v>1369.201043270263</v>
       </c>
       <c r="V28" t="n">
-        <v>1330.5711471015</v>
+        <v>1095.315298209785</v>
       </c>
       <c r="W28" t="n">
-        <v>1051.501482610374</v>
+        <v>816.2456337186591</v>
       </c>
       <c r="X28" t="n">
-        <v>813.1576204700575</v>
+        <v>577.9017715783425</v>
       </c>
       <c r="Y28" t="n">
-        <v>588.4219218588222</v>
+        <v>353.1660729671072</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>342.7378037392225</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="C29" t="n">
-        <v>37.7440047352622</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="D29" t="n">
-        <v>37.7440047352622</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="E29" t="n">
-        <v>37.7440047352622</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F29" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G29" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H29" t="n">
         <v>37.7440047352622</v>
@@ -6463,28 +6463,28 @@
         <v>37.7440047352622</v>
       </c>
       <c r="J29" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L29" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N29" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P29" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q29" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R29" t="n">
         <v>1887.20023676311</v>
@@ -6493,22 +6493,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T29" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.725885004977</v>
       </c>
       <c r="U29" t="n">
-        <v>1887.20023676311</v>
+        <v>1544.844581151515</v>
       </c>
       <c r="V29" t="n">
-        <v>1537.362682099591</v>
+        <v>1544.844581151515</v>
       </c>
       <c r="W29" t="n">
-        <v>1153.602381234759</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="X29" t="n">
-        <v>752.958983403712</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="Y29" t="n">
-        <v>752.958983403712</v>
+        <v>1161.084280286684</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628764</v>
       </c>
       <c r="C30" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118221</v>
       </c>
       <c r="D30" t="n">
-        <v>432.1613424648016</v>
+        <v>295.8192020312145</v>
       </c>
       <c r="E30" t="n">
-        <v>311.6685264571296</v>
+        <v>175.3263860235425</v>
       </c>
       <c r="F30" t="n">
-        <v>202.7086466396342</v>
+        <v>66.36650620604706</v>
       </c>
       <c r="G30" t="n">
-        <v>96.91695860170569</v>
+        <v>66.36650620604706</v>
       </c>
       <c r="H30" t="n">
         <v>37.7440047352622</v>
@@ -6548,19 +6548,19 @@
         <v>496.0340272520128</v>
       </c>
       <c r="L30" t="n">
-        <v>804.5947543809154</v>
+        <v>695.5130379051964</v>
       </c>
       <c r="M30" t="n">
-        <v>1045.216882605862</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N30" t="n">
-        <v>1298.043063762312</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O30" t="n">
-        <v>1520.330608861244</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P30" t="n">
-        <v>1690.906069190759</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q30" t="n">
         <v>1784.713972589205</v>
@@ -6569,25 +6569,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S30" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.47043908421</v>
       </c>
       <c r="T30" t="n">
-        <v>1732.688865280234</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U30" t="n">
-        <v>1535.416898145278</v>
+        <v>1449.687100466378</v>
       </c>
       <c r="V30" t="n">
-        <v>1372.317713892999</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W30" t="n">
-        <v>1159.084545629327</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X30" t="n">
-        <v>982.7585637682201</v>
+        <v>846.416423334633</v>
       </c>
       <c r="Y30" t="n">
-        <v>823.3566041320502</v>
+        <v>687.014463698463</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.7440047352622</v>
+        <v>784.7953683478737</v>
       </c>
       <c r="C31" t="n">
-        <v>37.7440047352622</v>
+        <v>784.7953683478737</v>
       </c>
       <c r="D31" t="n">
-        <v>37.7440047352622</v>
+        <v>625.3007236707838</v>
       </c>
       <c r="E31" t="n">
-        <v>37.7440047352622</v>
+        <v>464.3899085391033</v>
       </c>
       <c r="F31" t="n">
-        <v>37.7440047352622</v>
+        <v>299.7587826496945</v>
       </c>
       <c r="G31" t="n">
-        <v>37.7440047352622</v>
+        <v>133.5131105422041</v>
       </c>
       <c r="H31" t="n">
         <v>37.7440047352622</v>
@@ -6627,19 +6627,19 @@
         <v>119.1245341786054</v>
       </c>
       <c r="L31" t="n">
-        <v>266.8156316741187</v>
+        <v>401.4391549413998</v>
       </c>
       <c r="M31" t="n">
-        <v>710.4398172179137</v>
+        <v>845.0633404851949</v>
       </c>
       <c r="N31" t="n">
-        <v>1141.968389857242</v>
+        <v>1276.591913124523</v>
       </c>
       <c r="O31" t="n">
-        <v>1540.715411324361</v>
+        <v>1675.338934591642</v>
       </c>
       <c r="P31" t="n">
-        <v>1865.488871500339</v>
+        <v>1739.214911294502</v>
       </c>
       <c r="Q31" t="n">
         <v>1887.20023676311</v>
@@ -6651,22 +6651,22 @@
         <v>1718.317980094602</v>
       </c>
       <c r="T31" t="n">
-        <v>1483.062131202887</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="U31" t="n">
-        <v>1241.478681432462</v>
+        <v>1435.57463549347</v>
       </c>
       <c r="V31" t="n">
-        <v>967.5929363719843</v>
+        <v>1435.57463549347</v>
       </c>
       <c r="W31" t="n">
-        <v>688.5232718808586</v>
+        <v>1435.57463549347</v>
       </c>
       <c r="X31" t="n">
-        <v>450.1794097405419</v>
+        <v>1197.230773353153</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.4437111293066</v>
+        <v>972.4950747419181</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1486.2635637112</v>
+        <v>1273.862016851354</v>
       </c>
       <c r="C32" t="n">
-        <v>1486.2635637112</v>
+        <v>863.737426164624</v>
       </c>
       <c r="D32" t="n">
-        <v>1081.799633804261</v>
+        <v>863.737426164624</v>
       </c>
       <c r="E32" t="n">
-        <v>667.4594183211575</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F32" t="n">
-        <v>246.4290062748451</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G32" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H32" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J32" t="n">
         <v>151.474921851223</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987909</v>
+        <v>342.4771847987907</v>
       </c>
       <c r="L32" t="n">
-        <v>594.3775951131304</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M32" t="n">
         <v>887.4914597655647</v>
@@ -6730,22 +6730,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U32" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="V32" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="W32" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="X32" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="Y32" t="n">
-        <v>1486.2635637112</v>
+        <v>1273.862016851354</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>623.88061763002</v>
+        <v>577.2618834585351</v>
       </c>
       <c r="C33" t="n">
-        <v>489.8855463789657</v>
+        <v>443.2668122074807</v>
       </c>
       <c r="D33" t="n">
-        <v>372.9883885983581</v>
+        <v>326.3696544268731</v>
       </c>
       <c r="E33" t="n">
-        <v>252.4955725906861</v>
+        <v>205.8768384192011</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5356927731907</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="G33" t="n">
-        <v>37.74400473526221</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H33" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28095199337147</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J33" t="n">
-        <v>98.39707907527369</v>
+        <v>174.2084051059681</v>
       </c>
       <c r="K33" t="n">
-        <v>232.7978194276822</v>
+        <v>308.6091454583766</v>
       </c>
       <c r="L33" t="n">
-        <v>433.5140799155395</v>
+        <v>508.0881561115601</v>
       </c>
       <c r="M33" t="n">
-        <v>674.136208140486</v>
+        <v>748.7102843365066</v>
       </c>
       <c r="N33" t="n">
-        <v>1141.218266739356</v>
+        <v>1001.536465492956</v>
       </c>
       <c r="O33" t="n">
-        <v>1608.300325338226</v>
+        <v>1223.824010591889</v>
       </c>
       <c r="P33" t="n">
-        <v>1778.87578566774</v>
+        <v>1690.906069190759</v>
       </c>
       <c r="Q33" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R33" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S33" t="n">
-        <v>1801.47043908421</v>
+        <v>1832.020891479869</v>
       </c>
       <c r="T33" t="n">
-        <v>1646.959067601334</v>
+        <v>1677.509519996993</v>
       </c>
       <c r="U33" t="n">
-        <v>1526.856287033521</v>
+        <v>1480.237552862036</v>
       </c>
       <c r="V33" t="n">
-        <v>1313.144760026555</v>
+        <v>1266.52602585507</v>
       </c>
       <c r="W33" t="n">
-        <v>1099.911591762884</v>
+        <v>1053.292857591399</v>
       </c>
       <c r="X33" t="n">
-        <v>923.5856099017766</v>
+        <v>876.9668757302917</v>
       </c>
       <c r="Y33" t="n">
-        <v>764.1836502656066</v>
+        <v>717.5649160941217</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>290.1210832591188</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="C34" t="n">
-        <v>290.1210832591188</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="D34" t="n">
-        <v>290.1210832591188</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="E34" t="n">
-        <v>290.1210832591188</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F34" t="n">
-        <v>290.1210832591188</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G34" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H34" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I34" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J34" t="n">
-        <v>56.44525221744571</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K34" t="n">
-        <v>119.1245341786055</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L34" t="n">
-        <v>266.8156316741189</v>
+        <v>525.4233946718191</v>
       </c>
       <c r="M34" t="n">
-        <v>710.439817217914</v>
+        <v>969.0475802156142</v>
       </c>
       <c r="N34" t="n">
-        <v>1141.968389857242</v>
+        <v>1400.576152854943</v>
       </c>
       <c r="O34" t="n">
-        <v>1540.715411324361</v>
+        <v>1799.323174322062</v>
       </c>
       <c r="P34" t="n">
-        <v>1865.488871500339</v>
+        <v>1863.199151024922</v>
       </c>
       <c r="Q34" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="R34" t="n">
-        <v>1887.20023676311</v>
+        <v>1847.103336716822</v>
       </c>
       <c r="S34" t="n">
-        <v>1824.155247055122</v>
+        <v>1732.688983662946</v>
       </c>
       <c r="T34" t="n">
-        <v>1588.899398163407</v>
+        <v>1497.433134771231</v>
       </c>
       <c r="U34" t="n">
-        <v>1306.156053562274</v>
+        <v>1214.689790170098</v>
       </c>
       <c r="V34" t="n">
-        <v>1032.270308501796</v>
+        <v>940.8040451096203</v>
       </c>
       <c r="W34" t="n">
-        <v>753.2006440106707</v>
+        <v>661.7343806184947</v>
       </c>
       <c r="X34" t="n">
-        <v>514.8567818703541</v>
+        <v>423.390518478178</v>
       </c>
       <c r="Y34" t="n">
-        <v>290.1210832591188</v>
+        <v>198.6548198669427</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1102.796538067231</v>
+        <v>1402.023038200838</v>
       </c>
       <c r="C35" t="n">
-        <v>692.6719473805014</v>
+        <v>991.8984475141077</v>
       </c>
       <c r="D35" t="n">
-        <v>692.6719473805014</v>
+        <v>587.4345176071682</v>
       </c>
       <c r="E35" t="n">
-        <v>692.6719473805014</v>
+        <v>587.4345176071682</v>
       </c>
       <c r="F35" t="n">
-        <v>271.6415353341889</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G35" t="n">
-        <v>271.6415353341889</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J35" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L35" t="n">
         <v>594.3775951131297</v>
@@ -6958,31 +6958,31 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q35" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R35" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="V35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="W35" t="n">
-        <v>1503.439935898279</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="X35" t="n">
-        <v>1102.796538067231</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="Y35" t="n">
-        <v>1102.796538067231</v>
+        <v>1402.023038200838</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628759</v>
       </c>
       <c r="C36" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118216</v>
       </c>
       <c r="D36" t="n">
-        <v>432.1613424648016</v>
+        <v>295.819202031214</v>
       </c>
       <c r="E36" t="n">
-        <v>311.6685264571296</v>
+        <v>175.326386023542</v>
       </c>
       <c r="F36" t="n">
-        <v>202.7086466396342</v>
+        <v>66.36650620604661</v>
       </c>
       <c r="G36" t="n">
-        <v>96.91695860170569</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H36" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I36" t="n">
-        <v>57.84875584306886</v>
+        <v>57.84875584306885</v>
       </c>
       <c r="J36" t="n">
         <v>361.6332868996043</v>
@@ -7037,31 +7037,31 @@
         <v>1581.82435271504</v>
       </c>
       <c r="Q36" t="n">
-        <v>1784.713972589205</v>
+        <v>1784.713972589204</v>
       </c>
       <c r="R36" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S36" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.47043908421</v>
       </c>
       <c r="T36" t="n">
-        <v>1783.301208034922</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U36" t="n">
-        <v>1586.029240899965</v>
+        <v>1449.687100466377</v>
       </c>
       <c r="V36" t="n">
-        <v>1372.317713892999</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W36" t="n">
-        <v>1159.084545629327</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X36" t="n">
-        <v>982.7585637682201</v>
+        <v>846.4164233346326</v>
       </c>
       <c r="Y36" t="n">
-        <v>823.3566041320502</v>
+        <v>687.0144636984626</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.2838162985989</v>
+        <v>184.2838162985984</v>
       </c>
       <c r="C37" t="n">
-        <v>184.2838162985989</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D37" t="n">
-        <v>184.2838162985989</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E37" t="n">
-        <v>184.2838162985989</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F37" t="n">
-        <v>184.2838162985989</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G37" t="n">
-        <v>184.2838162985989</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H37" t="n">
-        <v>43.6092261012632</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
-        <v>121.4466158487821</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K37" t="n">
-        <v>184.1258978099418</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L37" t="n">
-        <v>590.4247583031554</v>
+        <v>525.4233946718191</v>
       </c>
       <c r="M37" t="n">
-        <v>1034.04894384695</v>
+        <v>969.0475802156142</v>
       </c>
       <c r="N37" t="n">
-        <v>1465.577516486279</v>
+        <v>1400.576152854943</v>
       </c>
       <c r="O37" t="n">
-        <v>1801.612894797479</v>
+        <v>1799.323174322062</v>
       </c>
       <c r="P37" t="n">
         <v>1865.488871500339</v>
@@ -7125,22 +7125,22 @@
         <v>1718.317980094602</v>
       </c>
       <c r="T37" t="n">
-        <v>1483.062131202887</v>
+        <v>1483.062131202886</v>
       </c>
       <c r="U37" t="n">
         <v>1200.318786601754</v>
       </c>
       <c r="V37" t="n">
-        <v>926.4330415412765</v>
+        <v>926.433041541276</v>
       </c>
       <c r="W37" t="n">
-        <v>647.3633770501508</v>
+        <v>647.3633770501503</v>
       </c>
       <c r="X37" t="n">
-        <v>409.0195149098342</v>
+        <v>409.0195149098337</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.2838162985989</v>
+        <v>184.2838162985984</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>684.3195305214506</v>
+        <v>1392.738531588259</v>
       </c>
       <c r="C38" t="n">
-        <v>684.3195305214506</v>
+        <v>1392.738531588259</v>
       </c>
       <c r="D38" t="n">
-        <v>684.3195305214506</v>
+        <v>988.2746016813196</v>
       </c>
       <c r="E38" t="n">
-        <v>684.3195305214506</v>
+        <v>573.9343861982163</v>
       </c>
       <c r="F38" t="n">
-        <v>263.2891184751381</v>
+        <v>152.9039741519039</v>
       </c>
       <c r="G38" t="n">
-        <v>263.2891184751381</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526271</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512236</v>
       </c>
       <c r="K38" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987911</v>
       </c>
       <c r="L38" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131306</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655643</v>
+        <v>887.491459765565</v>
       </c>
       <c r="N38" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P38" t="n">
-        <v>1687.808675484973</v>
+        <v>1687.808675484974</v>
       </c>
       <c r="Q38" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R38" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S38" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="T38" t="n">
-        <v>1674.798689903263</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="U38" t="n">
-        <v>1417.917386049801</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="V38" t="n">
-        <v>1068.079831386282</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="W38" t="n">
-        <v>684.3195305214506</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="X38" t="n">
-        <v>684.3195305214506</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="Y38" t="n">
-        <v>684.3195305214506</v>
+        <v>1802.959711252749</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>683.0535714964635</v>
+        <v>623.88061763002</v>
       </c>
       <c r="C39" t="n">
-        <v>549.0585002454092</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="D39" t="n">
-        <v>432.1613424648016</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E39" t="n">
-        <v>311.6685264571296</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F39" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G39" t="n">
-        <v>96.91695860170567</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I39" t="n">
-        <v>57.84875584306885</v>
+        <v>38.28095199337147</v>
       </c>
       <c r="J39" t="n">
-        <v>361.6332868996043</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K39" t="n">
-        <v>496.0340272520128</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L39" t="n">
-        <v>695.5130379051964</v>
+        <v>675.945234055499</v>
       </c>
       <c r="M39" t="n">
-        <v>936.1351661301428</v>
+        <v>916.5673622804454</v>
       </c>
       <c r="N39" t="n">
-        <v>1188.961347286593</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O39" t="n">
-        <v>1411.248892385525</v>
+        <v>1391.681088535828</v>
       </c>
       <c r="P39" t="n">
-        <v>1581.82435271504</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q39" t="n">
-        <v>1784.713972589204</v>
+        <v>1872.683689066187</v>
       </c>
       <c r="R39" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S39" t="n">
-        <v>1887.20023676311</v>
+        <v>1878.639625651354</v>
       </c>
       <c r="T39" t="n">
-        <v>1783.301208034922</v>
+        <v>1724.128254168478</v>
       </c>
       <c r="U39" t="n">
-        <v>1586.029240899965</v>
+        <v>1526.856287033521</v>
       </c>
       <c r="V39" t="n">
-        <v>1372.317713892999</v>
+        <v>1313.144760026555</v>
       </c>
       <c r="W39" t="n">
-        <v>1159.084545629327</v>
+        <v>1099.911591762884</v>
       </c>
       <c r="X39" t="n">
-        <v>982.7585637682201</v>
+        <v>923.5856099017766</v>
       </c>
       <c r="Y39" t="n">
-        <v>823.3566041320502</v>
+        <v>764.1836502656066</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.550001348964</v>
+        <v>699.2088198475349</v>
       </c>
       <c r="C40" t="n">
-        <v>264.550001348964</v>
+        <v>528.1154474092514</v>
       </c>
       <c r="D40" t="n">
-        <v>264.550001348964</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="E40" t="n">
-        <v>264.550001348964</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="F40" t="n">
-        <v>264.550001348964</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G40" t="n">
-        <v>264.550001348964</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H40" t="n">
-        <v>123.8754111516283</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J40" t="n">
-        <v>56.4452522174457</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K40" t="n">
-        <v>119.1245341786054</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L40" t="n">
-        <v>401.4391549413994</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M40" t="n">
-        <v>845.0633404851944</v>
+        <v>895.3627879183791</v>
       </c>
       <c r="N40" t="n">
-        <v>1276.591913124523</v>
+        <v>1015.694429651405</v>
       </c>
       <c r="O40" t="n">
-        <v>1675.338934591642</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P40" t="n">
-        <v>1739.214911294502</v>
+        <v>1739.214911294503</v>
       </c>
       <c r="Q40" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="R40" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S40" t="n">
-        <v>1887.20023676311</v>
+        <v>1770.163422891986</v>
       </c>
       <c r="T40" t="n">
-        <v>1751.028022647296</v>
+        <v>1534.907574000271</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.284678046164</v>
+        <v>1252.164229399139</v>
       </c>
       <c r="V40" t="n">
-        <v>1194.398932985686</v>
+        <v>978.2784843386605</v>
       </c>
       <c r="W40" t="n">
-        <v>915.3292684945604</v>
+        <v>699.2088198475349</v>
       </c>
       <c r="X40" t="n">
-        <v>676.9854063542438</v>
+        <v>699.2088198475349</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.2497077430085</v>
+        <v>699.2088198475349</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>342.44452851836</v>
+        <v>1007.696206385312</v>
       </c>
       <c r="C41" t="n">
-        <v>342.44452851836</v>
+        <v>1007.696206385312</v>
       </c>
       <c r="D41" t="n">
-        <v>37.7440047352622</v>
+        <v>1007.696206385312</v>
       </c>
       <c r="E41" t="n">
-        <v>37.7440047352622</v>
+        <v>593.355990902209</v>
       </c>
       <c r="F41" t="n">
-        <v>37.7440047352622</v>
+        <v>172.3255788558965</v>
       </c>
       <c r="G41" t="n">
-        <v>37.7440047352622</v>
+        <v>172.3255788558965</v>
       </c>
       <c r="H41" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J41" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K41" t="n">
         <v>342.4771847987904</v>
       </c>
       <c r="L41" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O41" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P41" t="n">
         <v>1687.808675484973</v>
@@ -7441,22 +7441,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V41" t="n">
-        <v>1537.362682099591</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="W41" t="n">
-        <v>1153.602381234759</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="X41" t="n">
-        <v>1153.602381234759</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="Y41" t="n">
-        <v>752.6657081828495</v>
+        <v>1417.917386049802</v>
       </c>
     </row>
     <row r="42">
@@ -7511,7 +7511,7 @@
         <v>1562.256548865342</v>
       </c>
       <c r="Q42" t="n">
-        <v>1784.713972589205</v>
+        <v>1872.683689066186</v>
       </c>
       <c r="R42" t="n">
         <v>1887.20023676311</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.2428369823162</v>
+        <v>409.0195149098342</v>
       </c>
       <c r="C43" t="n">
-        <v>358.1494645440327</v>
+        <v>409.0195149098342</v>
       </c>
       <c r="D43" t="n">
-        <v>198.6548198669427</v>
+        <v>409.0195149098342</v>
       </c>
       <c r="E43" t="n">
-        <v>37.7440047352622</v>
+        <v>248.1086997781537</v>
       </c>
       <c r="F43" t="n">
-        <v>37.7440047352622</v>
+        <v>83.47757388874493</v>
       </c>
       <c r="G43" t="n">
         <v>37.7440047352622</v>
@@ -7569,22 +7569,22 @@
         <v>37.7440047352622</v>
       </c>
       <c r="J43" t="n">
-        <v>56.4452522174457</v>
+        <v>58.73497269286349</v>
       </c>
       <c r="K43" t="n">
-        <v>175.5915305996456</v>
+        <v>121.4142546540232</v>
       </c>
       <c r="L43" t="n">
-        <v>581.8903910928592</v>
+        <v>527.7131151472369</v>
       </c>
       <c r="M43" t="n">
-        <v>1025.514576636654</v>
+        <v>971.3373006910319</v>
       </c>
       <c r="N43" t="n">
-        <v>1457.043149275983</v>
+        <v>1402.86587333036</v>
       </c>
       <c r="O43" t="n">
-        <v>1540.715411324361</v>
+        <v>1801.612894797479</v>
       </c>
       <c r="P43" t="n">
         <v>1865.488871500339</v>
@@ -7596,25 +7596,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S43" t="n">
-        <v>1838.541302167084</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="T43" t="n">
-        <v>1603.285453275369</v>
+        <v>1483.062131202887</v>
       </c>
       <c r="U43" t="n">
-        <v>1320.542108674236</v>
+        <v>1200.318786601754</v>
       </c>
       <c r="V43" t="n">
-        <v>1046.656363613758</v>
+        <v>926.4330415412765</v>
       </c>
       <c r="W43" t="n">
-        <v>767.5866991226328</v>
+        <v>647.3633770501508</v>
       </c>
       <c r="X43" t="n">
-        <v>529.2428369823162</v>
+        <v>409.0195149098342</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.2428369823162</v>
+        <v>409.0195149098342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>732.2020882765901</v>
+        <v>1136.66601818353</v>
       </c>
       <c r="C44" t="n">
-        <v>732.2020882765901</v>
+        <v>1136.66601818353</v>
       </c>
       <c r="D44" t="n">
         <v>732.2020882765901</v>
@@ -7642,13 +7642,13 @@
         <v>325.7136527572681</v>
       </c>
       <c r="H44" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I44" t="n">
-        <v>37.74400473526202</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J44" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K44" t="n">
         <v>342.4771847987903</v>
@@ -7657,19 +7657,19 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M44" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N44" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P44" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q44" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R44" t="n">
         <v>1887.20023676311</v>
@@ -7678,22 +7678,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T44" t="n">
-        <v>1674.798689903264</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U44" t="n">
-        <v>1465.799943804941</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="V44" t="n">
-        <v>1115.962389141421</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="W44" t="n">
-        <v>732.2020882765901</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="X44" t="n">
-        <v>732.2020882765901</v>
+        <v>1229.6755350786</v>
       </c>
       <c r="Y44" t="n">
-        <v>732.2020882765901</v>
+        <v>1229.6755350786</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>623.88061763002</v>
+        <v>546.7114310628759</v>
       </c>
       <c r="C45" t="n">
-        <v>489.8855463789657</v>
+        <v>412.7163598118216</v>
       </c>
       <c r="D45" t="n">
-        <v>372.9883885983581</v>
+        <v>295.819202031214</v>
       </c>
       <c r="E45" t="n">
-        <v>252.4955725906861</v>
+        <v>175.326386023542</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5356927731907</v>
+        <v>66.36650620604661</v>
       </c>
       <c r="G45" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H45" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J45" t="n">
         <v>342.0654830499069</v>
@@ -7748,7 +7748,7 @@
         <v>1562.256548865342</v>
       </c>
       <c r="Q45" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589204</v>
       </c>
       <c r="R45" t="n">
         <v>1887.20023676311</v>
@@ -7760,19 +7760,19 @@
         <v>1646.959067601334</v>
       </c>
       <c r="U45" t="n">
-        <v>1526.856287033521</v>
+        <v>1449.687100466377</v>
       </c>
       <c r="V45" t="n">
-        <v>1313.144760026555</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W45" t="n">
-        <v>1099.911591762884</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X45" t="n">
-        <v>923.5856099017766</v>
+        <v>846.4164233346326</v>
       </c>
       <c r="Y45" t="n">
-        <v>764.1836502656066</v>
+        <v>687.0144636984626</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>197.2386494123522</v>
+        <v>1000.794225176551</v>
       </c>
       <c r="C46" t="n">
-        <v>197.2386494123522</v>
+        <v>829.7008527382677</v>
       </c>
       <c r="D46" t="n">
-        <v>37.7440047352622</v>
+        <v>670.2062080611777</v>
       </c>
       <c r="E46" t="n">
-        <v>37.7440047352622</v>
+        <v>509.2953929294971</v>
       </c>
       <c r="F46" t="n">
-        <v>37.7440047352622</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="G46" t="n">
-        <v>37.7440047352622</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H46" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I46" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J46" t="n">
-        <v>56.4452522174457</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K46" t="n">
-        <v>119.1245341786054</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L46" t="n">
-        <v>401.4391549413998</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M46" t="n">
-        <v>845.0633404851949</v>
+        <v>895.3627879183791</v>
       </c>
       <c r="N46" t="n">
-        <v>1276.591913124523</v>
+        <v>1015.694429651405</v>
       </c>
       <c r="O46" t="n">
-        <v>1675.338934591642</v>
+        <v>1414.441451118523</v>
       </c>
       <c r="P46" t="n">
         <v>1739.214911294502</v>
@@ -7833,25 +7833,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S46" t="n">
-        <v>1887.20023676311</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="T46" t="n">
-        <v>1683.716670710684</v>
+        <v>1651.573492322148</v>
       </c>
       <c r="U46" t="n">
-        <v>1400.973326109552</v>
+        <v>1651.573492322148</v>
       </c>
       <c r="V46" t="n">
-        <v>1127.087581049074</v>
+        <v>1651.573492322148</v>
       </c>
       <c r="W46" t="n">
-        <v>848.0179165579484</v>
+        <v>1651.573492322148</v>
       </c>
       <c r="X46" t="n">
-        <v>609.6740544176319</v>
+        <v>1413.229630181831</v>
       </c>
       <c r="Y46" t="n">
-        <v>384.9383558063965</v>
+        <v>1188.493931570596</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>2.402395758932741</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>142.7179076535497</v>
       </c>
       <c r="K12" t="n">
-        <v>301.1245226649323</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.33596928884808</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>267.1056469753354</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>4.877193025824887</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>334.6574209449303</v>
+        <v>334.6574209449301</v>
       </c>
       <c r="N13" t="n">
-        <v>333.5452725343143</v>
+        <v>333.5452725343141</v>
       </c>
       <c r="O13" t="n">
-        <v>148.6897972057194</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.402395758932727</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>53.22647766135693</v>
       </c>
       <c r="K15" t="n">
-        <v>190.9350746910912</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>218.8884799377943</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>339.2340142924232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>213.241024930587</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>334.6574209449303</v>
+        <v>334.6574209449301</v>
       </c>
       <c r="N16" t="n">
-        <v>333.5452725343143</v>
+        <v>333.5452725343142</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>213.2410249305868</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>152.3119525140617</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>240.1485394397186</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>57.47249149760432</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>213.241024930587</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>334.6574209449303</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>333.5452725343143</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>92.39645750694747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>57.47249149760421</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>53.22647766135736</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>339.2340142924234</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>213.241024930587</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>334.6574209449303</v>
+        <v>26.73851444499128</v>
       </c>
       <c r="N22" t="n">
-        <v>333.5452725343143</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>199.0418514673747</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1835519956754</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>254.9122386493148</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.31284896506871</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>270.3061090360467</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>194.6309018498433</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.1835519956763</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>55.9306547851744</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10050,7 +10050,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>2.31284896506871</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10196,22 +10196,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>110.1835519956759</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>55.9306547851744</v>
+        <v>191.9140116208119</v>
       </c>
       <c r="M31" t="n">
         <v>348.4508580952379</v>
@@ -10287,10 +10287,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>56.81163856666362</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.249747307751363</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>216.4200782246665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>247.2671853534721</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>299.50161441349</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>55.9306547851746</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10524,10 +10524,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.312848965068355</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1835519956759</v>
+        <v>110.1835519956754</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10758,10 +10758,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>254.9122386493152</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.312848965067786</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1835519956754</v>
+        <v>218.8073099014125</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>191.9140116208114</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>21.04784903159948</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.9490104297136</v>
+        <v>218.807309901412</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.312848965068468</v>
       </c>
       <c r="K43" t="n">
-        <v>57.03737012226274</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11232,10 +11232,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.807309901412</v>
+        <v>129.9490104297132</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>191.9140116208119</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>21.04784903159856</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>320.3090079916848</v>
+        <v>402.5834053512592</v>
       </c>
       <c r="H11" t="n">
         <v>286.7270582357355</v>
       </c>
       <c r="I11" t="n">
-        <v>6.162778549346953</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.04079754449367</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.9772930954111</v>
@@ -23317,7 +23317,7 @@
         <v>254.325279149898</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>10.24769447233689</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>104.8193006879558</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>86.46117321646231</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.3110017963089</v>
       </c>
       <c r="U12" t="n">
-        <v>135.653860055805</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>34.72332985468461</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>36.44915260390374</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23433,10 +23433,10 @@
         <v>164.6549204715854</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.9053676889628</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.42645982258125</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.92005242082354</v>
+        <v>42.92005242082356</v>
       </c>
       <c r="S13" t="n">
         <v>168.443058177009</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.4792731350832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.6479364904895</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>197.7331951171369</v>
       </c>
       <c r="H14" t="n">
         <v>286.7270582357355</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.04079754449367</v>
+        <v>87.0407975444937</v>
       </c>
       <c r="T14" t="n">
-        <v>210.9772930954111</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.325279149898</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>36.64342571492571</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>86.46117321646231</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>16.87469352163995</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>107.0018071721027</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.9053676889628</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.42645982258125</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>42.92005242082356</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>185.0333536909796</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>397.7218605157327</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.5834053512592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.7270582357355</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.162778549346953</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.04079754449367</v>
+        <v>87.0407975444937</v>
       </c>
       <c r="T17" t="n">
-        <v>210.9772930954111</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.325279149898</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>282.0784374304185</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.8193006879558</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>16.36597220821022</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.55102721887813</v>
+        <v>86.46117321646231</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>120.8657222525835</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6549204715854</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.9053676889628</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.42645982258125</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>42.92005242082356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.443058177009</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>35.40465331014943</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>225.3984561161569</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5834053512592</v>
+        <v>145.1910024830156</v>
       </c>
       <c r="H20" t="n">
         <v>286.7270582357355</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.162778549346982</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>87.04079754449369</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>254.325279149898</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.8193006879558</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.40725952933791</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>86.46117321646231</v>
+        <v>30.05265320438609</v>
       </c>
       <c r="T21" t="n">
-        <v>153.3110017963089</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>87.16215894745207</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.52988433744024</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>72.2172052464059</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>164.6549204715854</v>
@@ -24147,7 +24147,7 @@
         <v>139.9053676889628</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.42645982258125</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>42.92005242082355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.443058177009</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9198223415847</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>336.1850957219804</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>179.4473372402254</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>50.10621932714093</v>
+        <v>76.39749470147176</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>144.5356640785567</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H25" t="n">
         <v>139.2678442953623</v>
@@ -24414,16 +24414,16 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>40.74829588240034</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -24460,7 +24460,7 @@
         <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
-        <v>17.10690966710556</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>30.0670727962904</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>76.3974947014722</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H27" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>30.24494787170187</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>137.6020401086104</v>
+        <v>21.69780655078966</v>
       </c>
       <c r="H28" t="n">
         <v>139.2678442953623</v>
@@ -24654,7 +24654,7 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>104.0794837659419</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
-        <v>210.2775313912475</v>
+        <v>125.6579231506961</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>30.24494787170203</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>50.10621932714034</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.2678442953623</v>
+        <v>44.45642954648989</v>
       </c>
       <c r="I31" t="n">
         <v>85.27009235220248</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
-        <v>40.74829588240065</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.283434039053361</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>195.8253996399417</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
         <v>285.0899515417858</v>
@@ -24970,7 +24970,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3124908149276</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H33" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>30.24494787170232</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>76.39749470147216</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
         <v>139.2678442953623</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>104.7788942909145</v>
+        <v>53.92322457848614</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>275.0500513467912</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>53.5313962488483</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.2775313912475</v>
@@ -25216,13 +25216,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>76.39749470147265</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>50.1062193271406</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>24.3080252661978</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25329,10 +25329,10 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I37" t="n">
-        <v>79.4635231998615</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4235511641288</v>
+        <v>288.4151814416535</v>
       </c>
       <c r="H38" t="n">
-        <v>61.80028893930857</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.8724997021109</v>
+        <v>76.39749470147193</v>
       </c>
       <c r="T39" t="n">
-        <v>50.10621932714105</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S40" t="n">
-        <v>167.1934341018228</v>
+        <v>51.32698836940985</v>
       </c>
       <c r="T40" t="n">
-        <v>98.0927984281433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>98.76577206260322</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>151.8541931623578</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5832153864156</v>
+        <v>119.3069819244677</v>
       </c>
       <c r="H43" t="n">
         <v>139.2678442953623</v>
@@ -25836,7 +25836,7 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S43" t="n">
-        <v>119.0210888517572</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>314.0395461417248</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25918,19 +25918,19 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
-        <v>47.40373217758767</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>76.39749470147265</v>
       </c>
       <c r="H45" t="n">
         <v>58.58122432777904</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>76.39749470147216</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>85.27009235220248</v>
@@ -26073,19 +26073,19 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S46" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>31.45456001089693</v>
+        <v>166.8262475080686</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441142.7673580312</v>
+        <v>441142.767358031</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441142.7673580313</v>
+        <v>441142.7673580311</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>441142.7673580313</v>
+        <v>441142.7673580312</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>441142.7673580313</v>
+        <v>441142.7673580312</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>477621.484260215</v>
+        <v>477621.4842602151</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>477621.4842602151</v>
+        <v>477621.4842602152</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>477621.484260215</v>
+        <v>477621.4842602148</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>477621.484260215</v>
+        <v>477621.4842602153</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>477621.484260215</v>
+        <v>477621.4842602151</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477621.484260215</v>
+        <v>477621.4842602148</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>53352.50003252157</v>
       </c>
       <c r="E2" t="n">
-        <v>194767.7624862592</v>
+        <v>194767.7624862591</v>
       </c>
       <c r="F2" t="n">
-        <v>194767.7624862592</v>
+        <v>194767.7624862591</v>
       </c>
       <c r="G2" t="n">
-        <v>194767.7624862592</v>
+        <v>194767.7624862591</v>
       </c>
       <c r="H2" t="n">
         <v>194767.7624862592</v>
       </c>
       <c r="I2" t="n">
+        <v>210659.494997647</v>
+      </c>
+      <c r="J2" t="n">
+        <v>210659.494997647</v>
+      </c>
+      <c r="K2" t="n">
         <v>210659.4949976469</v>
       </c>
-      <c r="J2" t="n">
-        <v>210659.4949976469</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>210659.4949976468</v>
       </c>
-      <c r="L2" t="n">
-        <v>210659.4949976469</v>
-      </c>
       <c r="M2" t="n">
-        <v>210659.4949976469</v>
+        <v>210659.4949976468</v>
       </c>
       <c r="N2" t="n">
         <v>210659.4949976469</v>
       </c>
       <c r="O2" t="n">
+        <v>210659.4949976469</v>
+      </c>
+      <c r="P2" t="n">
         <v>210659.4949976468</v>
-      </c>
-      <c r="P2" t="n">
-        <v>210659.4949976469</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>537523.237139221</v>
+        <v>537523.2371392208</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42890.00055338877</v>
+        <v>42890.00055338886</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>105431.1606096559</v>
+        <v>105431.1606096558</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>33951.59092978646</v>
       </c>
       <c r="E4" t="n">
-        <v>16561.78920151476</v>
+        <v>16561.78920151475</v>
       </c>
       <c r="F4" t="n">
-        <v>16561.78920151476</v>
+        <v>16561.78920151475</v>
       </c>
       <c r="G4" t="n">
         <v>16561.78920151476</v>
@@ -26438,28 +26438,28 @@
         <v>16561.78920151476</v>
       </c>
       <c r="I4" t="n">
-        <v>18409.89003788896</v>
+        <v>18409.89003788898</v>
       </c>
       <c r="J4" t="n">
-        <v>18409.89003788897</v>
+        <v>18409.89003788898</v>
       </c>
       <c r="K4" t="n">
         <v>18409.89003788897</v>
       </c>
       <c r="L4" t="n">
-        <v>18409.89003788897</v>
+        <v>18409.89003788896</v>
       </c>
       <c r="M4" t="n">
-        <v>18409.89003788897</v>
+        <v>18409.89003788896</v>
       </c>
       <c r="N4" t="n">
-        <v>18409.89003788896</v>
+        <v>18409.89003788898</v>
       </c>
       <c r="O4" t="n">
         <v>18409.89003788897</v>
       </c>
       <c r="P4" t="n">
-        <v>18409.89003788897</v>
+        <v>18409.89003788896</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36880.58777378294</v>
+        <v>36880.58777378292</v>
       </c>
       <c r="F5" t="n">
-        <v>36880.58777378294</v>
+        <v>36880.58777378292</v>
       </c>
       <c r="G5" t="n">
-        <v>36880.58777378294</v>
+        <v>36880.58777378293</v>
       </c>
       <c r="H5" t="n">
         <v>36880.58777378293</v>
       </c>
       <c r="I5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="J5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="K5" t="n">
         <v>40710.1211392429</v>
       </c>
       <c r="L5" t="n">
-        <v>40710.12113924291</v>
+        <v>40710.1211392429</v>
       </c>
       <c r="M5" t="n">
         <v>40710.1211392429</v>
       </c>
       <c r="N5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="O5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380527</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380527</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380527</v>
       </c>
       <c r="E6" t="n">
-        <v>-396197.8516282595</v>
+        <v>-396941.3675472827</v>
       </c>
       <c r="F6" t="n">
-        <v>141325.3855109615</v>
+        <v>140581.869591938</v>
       </c>
       <c r="G6" t="n">
-        <v>141325.3855109615</v>
+        <v>140581.869591938</v>
       </c>
       <c r="H6" t="n">
-        <v>141325.3855109615</v>
+        <v>140581.8695919382</v>
       </c>
       <c r="I6" t="n">
-        <v>108649.4832671263</v>
+        <v>107978.2024958819</v>
       </c>
       <c r="J6" t="n">
-        <v>151539.483820515</v>
+        <v>150868.2030492707</v>
       </c>
       <c r="K6" t="n">
-        <v>151539.483820515</v>
+        <v>150868.2030492707</v>
       </c>
       <c r="L6" t="n">
-        <v>151539.483820515</v>
+        <v>150868.2030492706</v>
       </c>
       <c r="M6" t="n">
-        <v>46108.32321085913</v>
+        <v>45437.04243961484</v>
       </c>
       <c r="N6" t="n">
-        <v>151539.483820515</v>
+        <v>150868.2030492706</v>
       </c>
       <c r="O6" t="n">
-        <v>151539.483820515</v>
+        <v>150868.2030492707</v>
       </c>
       <c r="P6" t="n">
-        <v>151539.483820515</v>
+        <v>150868.2030492706</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>511.8269838156854</v>
+        <v>511.8269838156852</v>
       </c>
       <c r="F3" t="n">
-        <v>511.8269838156854</v>
+        <v>511.8269838156852</v>
       </c>
       <c r="G3" t="n">
-        <v>511.8269838156854</v>
+        <v>511.8269838156852</v>
       </c>
       <c r="H3" t="n">
         <v>511.8269838156853</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>423.0717027401479</v>
+        <v>423.0717027401477</v>
       </c>
       <c r="F4" t="n">
-        <v>423.0717027401479</v>
+        <v>423.0717027401477</v>
       </c>
       <c r="G4" t="n">
-        <v>423.0717027401479</v>
+        <v>423.0717027401478</v>
       </c>
       <c r="H4" t="n">
-        <v>423.0717027401479</v>
+        <v>423.0717027401478</v>
       </c>
       <c r="I4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907776</v>
       </c>
       <c r="J4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907776</v>
       </c>
       <c r="K4" t="n">
         <v>471.8000591907775</v>
       </c>
       <c r="L4" t="n">
+        <v>471.8000591907775</v>
+      </c>
+      <c r="M4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="N4" t="n">
         <v>471.8000591907776</v>
-      </c>
-      <c r="M4" t="n">
-        <v>471.8000591907775</v>
-      </c>
-      <c r="N4" t="n">
-        <v>471.8000591907774</v>
       </c>
       <c r="O4" t="n">
         <v>471.8000591907775</v>
       </c>
       <c r="P4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>511.8269838156854</v>
+        <v>511.8269838156852</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>423.071702740148</v>
+        <v>423.0717027401478</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>48.72835645062946</v>
+        <v>48.7283564506298</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>423.0717027401481</v>
+        <v>423.0717027401478</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>423.071702740148</v>
+        <v>423.0717027401478</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,13 +31755,13 @@
         <v>2.057595914836924</v>
       </c>
       <c r="H11" t="n">
-        <v>21.07235416282366</v>
+        <v>21.07235416282365</v>
       </c>
       <c r="I11" t="n">
-        <v>79.32546650675062</v>
+        <v>79.32546650675059</v>
       </c>
       <c r="J11" t="n">
-        <v>174.6358812768906</v>
+        <v>174.6358812768905</v>
       </c>
       <c r="K11" t="n">
         <v>261.7339163519376</v>
@@ -31770,28 +31770,28 @@
         <v>324.7040673306282</v>
       </c>
       <c r="M11" t="n">
-        <v>361.2958386811094</v>
+        <v>361.2958386811093</v>
       </c>
       <c r="N11" t="n">
-        <v>367.1419830741398</v>
+        <v>367.1419830741397</v>
       </c>
       <c r="O11" t="n">
-        <v>346.6817636959801</v>
+        <v>346.68176369598</v>
       </c>
       <c r="P11" t="n">
-        <v>295.8848645484435</v>
+        <v>295.8848645484434</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.1972108483461</v>
+        <v>222.197210848346</v>
       </c>
       <c r="R11" t="n">
-        <v>129.2504593853751</v>
+        <v>129.250459385375</v>
       </c>
       <c r="S11" t="n">
-        <v>46.88746690934646</v>
+        <v>46.88746690934645</v>
       </c>
       <c r="T11" t="n">
-        <v>9.007126117198641</v>
+        <v>9.00712611719864</v>
       </c>
       <c r="U11" t="n">
         <v>0.1646076731869539</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.100910870848833</v>
+        <v>1.100910870848832</v>
       </c>
       <c r="H12" t="n">
         <v>10.6324813053032</v>
       </c>
       <c r="I12" t="n">
-        <v>37.90416814106727</v>
+        <v>37.90416814106726</v>
       </c>
       <c r="J12" t="n">
         <v>104.0119345129592</v>
@@ -31846,34 +31846,34 @@
         <v>177.772962859831</v>
       </c>
       <c r="L12" t="n">
-        <v>239.0376871112784</v>
+        <v>239.0376871112783</v>
       </c>
       <c r="M12" t="n">
-        <v>278.9457061795485</v>
+        <v>278.9457061795484</v>
       </c>
       <c r="N12" t="n">
-        <v>286.3285689932673</v>
+        <v>286.3285689932671</v>
       </c>
       <c r="O12" t="n">
-        <v>261.9347018023536</v>
+        <v>261.9347018023535</v>
       </c>
       <c r="P12" t="n">
-        <v>210.2256907676162</v>
+        <v>210.2256907676161</v>
       </c>
       <c r="Q12" t="n">
         <v>140.5303069525633</v>
       </c>
       <c r="R12" t="n">
-        <v>68.35304512164949</v>
+        <v>68.35304512164946</v>
       </c>
       <c r="S12" t="n">
-        <v>20.44893657037195</v>
+        <v>20.44893657037194</v>
       </c>
       <c r="T12" t="n">
-        <v>4.437443378552969</v>
+        <v>4.437443378552968</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0724283467663706</v>
+        <v>0.07242834676637058</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9229666921266456</v>
+        <v>0.9229666921266453</v>
       </c>
       <c r="H13" t="n">
-        <v>8.206012953635092</v>
+        <v>8.206012953635089</v>
       </c>
       <c r="I13" t="n">
-        <v>27.75612561413586</v>
+        <v>27.75612561413585</v>
       </c>
       <c r="J13" t="n">
-        <v>65.25374513335385</v>
+        <v>65.25374513335382</v>
       </c>
       <c r="K13" t="n">
-        <v>107.2319484125321</v>
+        <v>107.231948412532</v>
       </c>
       <c r="L13" t="n">
-        <v>137.2199753003561</v>
+        <v>137.219975300356</v>
       </c>
       <c r="M13" t="n">
         <v>144.6792242939977</v>
       </c>
       <c r="N13" t="n">
-        <v>141.2390757142531</v>
+        <v>141.239075714253</v>
       </c>
       <c r="O13" t="n">
-        <v>130.4571466289554</v>
+        <v>130.4571466289553</v>
       </c>
       <c r="P13" t="n">
         <v>111.6286261095717</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.28587455616849</v>
+        <v>77.28587455616847</v>
       </c>
       <c r="R13" t="n">
-        <v>41.4999387205308</v>
+        <v>41.49993872053079</v>
       </c>
       <c r="S13" t="n">
         <v>16.08479226187981</v>
       </c>
       <c r="T13" t="n">
-        <v>3.943584957268394</v>
+        <v>3.943584957268393</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05034363775236255</v>
+        <v>0.05034363775236253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,13 +31992,13 @@
         <v>2.057595914836924</v>
       </c>
       <c r="H14" t="n">
-        <v>21.07235416282366</v>
+        <v>21.07235416282365</v>
       </c>
       <c r="I14" t="n">
-        <v>79.32546650675062</v>
+        <v>79.32546650675059</v>
       </c>
       <c r="J14" t="n">
-        <v>174.6358812768906</v>
+        <v>174.6358812768905</v>
       </c>
       <c r="K14" t="n">
         <v>261.7339163519376</v>
@@ -32007,28 +32007,28 @@
         <v>324.7040673306282</v>
       </c>
       <c r="M14" t="n">
-        <v>361.2958386811094</v>
+        <v>361.2958386811093</v>
       </c>
       <c r="N14" t="n">
-        <v>367.1419830741398</v>
+        <v>367.1419830741397</v>
       </c>
       <c r="O14" t="n">
-        <v>346.6817636959801</v>
+        <v>346.68176369598</v>
       </c>
       <c r="P14" t="n">
-        <v>295.8848645484435</v>
+        <v>295.8848645484434</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.1972108483461</v>
+        <v>222.197210848346</v>
       </c>
       <c r="R14" t="n">
-        <v>129.2504593853751</v>
+        <v>129.250459385375</v>
       </c>
       <c r="S14" t="n">
-        <v>46.88746690934646</v>
+        <v>46.88746690934645</v>
       </c>
       <c r="T14" t="n">
-        <v>9.007126117198641</v>
+        <v>9.00712611719864</v>
       </c>
       <c r="U14" t="n">
         <v>0.1646076731869539</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.100910870848833</v>
+        <v>1.100910870848832</v>
       </c>
       <c r="H15" t="n">
         <v>10.6324813053032</v>
       </c>
       <c r="I15" t="n">
-        <v>37.90416814106727</v>
+        <v>37.90416814106726</v>
       </c>
       <c r="J15" t="n">
         <v>104.0119345129592</v>
@@ -32083,34 +32083,34 @@
         <v>177.772962859831</v>
       </c>
       <c r="L15" t="n">
-        <v>239.0376871112784</v>
+        <v>239.0376871112783</v>
       </c>
       <c r="M15" t="n">
-        <v>278.9457061795485</v>
+        <v>278.9457061795484</v>
       </c>
       <c r="N15" t="n">
-        <v>286.3285689932673</v>
+        <v>286.3285689932671</v>
       </c>
       <c r="O15" t="n">
-        <v>261.9347018023536</v>
+        <v>261.9347018023535</v>
       </c>
       <c r="P15" t="n">
-        <v>210.2256907676162</v>
+        <v>210.2256907676161</v>
       </c>
       <c r="Q15" t="n">
         <v>140.5303069525633</v>
       </c>
       <c r="R15" t="n">
-        <v>68.35304512164949</v>
+        <v>68.35304512164946</v>
       </c>
       <c r="S15" t="n">
-        <v>20.44893657037195</v>
+        <v>20.44893657037194</v>
       </c>
       <c r="T15" t="n">
-        <v>4.437443378552969</v>
+        <v>4.437443378552968</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0724283467663706</v>
+        <v>0.07242834676637058</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9229666921266456</v>
+        <v>0.9229666921266453</v>
       </c>
       <c r="H16" t="n">
-        <v>8.206012953635092</v>
+        <v>8.206012953635089</v>
       </c>
       <c r="I16" t="n">
-        <v>27.75612561413586</v>
+        <v>27.75612561413585</v>
       </c>
       <c r="J16" t="n">
-        <v>65.25374513335385</v>
+        <v>65.25374513335382</v>
       </c>
       <c r="K16" t="n">
-        <v>107.2319484125321</v>
+        <v>107.231948412532</v>
       </c>
       <c r="L16" t="n">
-        <v>137.2199753003561</v>
+        <v>137.219975300356</v>
       </c>
       <c r="M16" t="n">
         <v>144.6792242939977</v>
       </c>
       <c r="N16" t="n">
-        <v>141.2390757142531</v>
+        <v>141.239075714253</v>
       </c>
       <c r="O16" t="n">
-        <v>130.4571466289554</v>
+        <v>130.4571466289553</v>
       </c>
       <c r="P16" t="n">
         <v>111.6286261095717</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.28587455616849</v>
+        <v>77.28587455616847</v>
       </c>
       <c r="R16" t="n">
-        <v>41.4999387205308</v>
+        <v>41.49993872053079</v>
       </c>
       <c r="S16" t="n">
         <v>16.08479226187981</v>
       </c>
       <c r="T16" t="n">
-        <v>3.943584957268394</v>
+        <v>3.943584957268393</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05034363775236255</v>
+        <v>0.05034363775236253</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,13 +32229,13 @@
         <v>2.057595914836924</v>
       </c>
       <c r="H17" t="n">
-        <v>21.07235416282366</v>
+        <v>21.07235416282365</v>
       </c>
       <c r="I17" t="n">
-        <v>79.32546650675062</v>
+        <v>79.32546650675059</v>
       </c>
       <c r="J17" t="n">
-        <v>174.6358812768906</v>
+        <v>174.6358812768905</v>
       </c>
       <c r="K17" t="n">
         <v>261.7339163519376</v>
@@ -32244,28 +32244,28 @@
         <v>324.7040673306282</v>
       </c>
       <c r="M17" t="n">
-        <v>361.2958386811094</v>
+        <v>361.2958386811093</v>
       </c>
       <c r="N17" t="n">
-        <v>367.1419830741398</v>
+        <v>367.1419830741397</v>
       </c>
       <c r="O17" t="n">
-        <v>346.6817636959801</v>
+        <v>346.68176369598</v>
       </c>
       <c r="P17" t="n">
-        <v>295.8848645484435</v>
+        <v>295.8848645484434</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.1972108483461</v>
+        <v>222.197210848346</v>
       </c>
       <c r="R17" t="n">
-        <v>129.2504593853751</v>
+        <v>129.250459385375</v>
       </c>
       <c r="S17" t="n">
-        <v>46.88746690934646</v>
+        <v>46.88746690934645</v>
       </c>
       <c r="T17" t="n">
-        <v>9.007126117198641</v>
+        <v>9.00712611719864</v>
       </c>
       <c r="U17" t="n">
         <v>0.1646076731869539</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.100910870848833</v>
+        <v>1.100910870848832</v>
       </c>
       <c r="H18" t="n">
         <v>10.6324813053032</v>
       </c>
       <c r="I18" t="n">
-        <v>37.90416814106727</v>
+        <v>37.90416814106726</v>
       </c>
       <c r="J18" t="n">
         <v>104.0119345129592</v>
@@ -32320,34 +32320,34 @@
         <v>177.772962859831</v>
       </c>
       <c r="L18" t="n">
-        <v>239.0376871112784</v>
+        <v>239.0376871112783</v>
       </c>
       <c r="M18" t="n">
-        <v>278.9457061795485</v>
+        <v>278.9457061795484</v>
       </c>
       <c r="N18" t="n">
-        <v>286.3285689932673</v>
+        <v>286.3285689932671</v>
       </c>
       <c r="O18" t="n">
-        <v>261.9347018023536</v>
+        <v>261.9347018023535</v>
       </c>
       <c r="P18" t="n">
-        <v>210.2256907676162</v>
+        <v>210.2256907676161</v>
       </c>
       <c r="Q18" t="n">
         <v>140.5303069525633</v>
       </c>
       <c r="R18" t="n">
-        <v>68.35304512164949</v>
+        <v>68.35304512164946</v>
       </c>
       <c r="S18" t="n">
-        <v>20.44893657037195</v>
+        <v>20.44893657037194</v>
       </c>
       <c r="T18" t="n">
-        <v>4.437443378552969</v>
+        <v>4.437443378552968</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0724283467663706</v>
+        <v>0.07242834676637058</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9229666921266456</v>
+        <v>0.9229666921266453</v>
       </c>
       <c r="H19" t="n">
-        <v>8.206012953635092</v>
+        <v>8.206012953635089</v>
       </c>
       <c r="I19" t="n">
-        <v>27.75612561413586</v>
+        <v>27.75612561413585</v>
       </c>
       <c r="J19" t="n">
-        <v>65.25374513335385</v>
+        <v>65.25374513335382</v>
       </c>
       <c r="K19" t="n">
-        <v>107.2319484125321</v>
+        <v>107.231948412532</v>
       </c>
       <c r="L19" t="n">
-        <v>137.2199753003561</v>
+        <v>137.219975300356</v>
       </c>
       <c r="M19" t="n">
         <v>144.6792242939977</v>
       </c>
       <c r="N19" t="n">
-        <v>141.2390757142531</v>
+        <v>141.239075714253</v>
       </c>
       <c r="O19" t="n">
-        <v>130.4571466289554</v>
+        <v>130.4571466289553</v>
       </c>
       <c r="P19" t="n">
         <v>111.6286261095717</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.28587455616849</v>
+        <v>77.28587455616847</v>
       </c>
       <c r="R19" t="n">
-        <v>41.4999387205308</v>
+        <v>41.49993872053079</v>
       </c>
       <c r="S19" t="n">
         <v>16.08479226187981</v>
       </c>
       <c r="T19" t="n">
-        <v>3.943584957268394</v>
+        <v>3.943584957268393</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05034363775236255</v>
+        <v>0.05034363775236253</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>101.3122899435826</v>
       </c>
       <c r="K11" t="n">
-        <v>172.5975266787205</v>
+        <v>172.5975266787204</v>
       </c>
       <c r="L11" t="n">
         <v>229.2186692677834</v>
       </c>
       <c r="M11" t="n">
-        <v>268.0056142240639</v>
+        <v>268.0056142240638</v>
       </c>
       <c r="N11" t="n">
-        <v>274.2296923175205</v>
+        <v>274.2296923175204</v>
       </c>
       <c r="O11" t="n">
-        <v>253.491988070197</v>
+        <v>253.4919880701969</v>
       </c>
       <c r="P11" t="n">
-        <v>202.2355012675594</v>
+        <v>202.2355012675593</v>
       </c>
       <c r="Q11" t="n">
         <v>132.163406449194</v>
       </c>
       <c r="R11" t="n">
-        <v>41.93831657065157</v>
+        <v>41.93831657065151</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>17.36306267510505</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.64269571295923</v>
+        <v>195.3606033665089</v>
       </c>
       <c r="K12" t="n">
-        <v>423.0717027401479</v>
+        <v>121.9471800752156</v>
       </c>
       <c r="L12" t="n">
-        <v>274.2591325892774</v>
+        <v>182.9231633004293</v>
       </c>
       <c r="M12" t="n">
-        <v>221.3814224411311</v>
+        <v>221.381422441131</v>
       </c>
       <c r="N12" t="n">
-        <v>233.1351755995173</v>
+        <v>233.1351755995171</v>
       </c>
       <c r="O12" t="n">
-        <v>204.1832228023536</v>
+        <v>204.1832228023535</v>
       </c>
       <c r="P12" t="n">
-        <v>155.9660557648124</v>
+        <v>423.0717027401477</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.83768844772456</v>
+        <v>83.83768844772453</v>
       </c>
       <c r="R12" t="n">
-        <v>9.352846016244079</v>
+        <v>9.352846016244051</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.47854251235438</v>
+        <v>18.69779247622328</v>
       </c>
       <c r="K13" t="n">
-        <v>54.98157885346525</v>
+        <v>263.345410758227</v>
       </c>
       <c r="L13" t="n">
-        <v>399.7422988155687</v>
+        <v>82.59168140645448</v>
       </c>
       <c r="M13" t="n">
-        <v>423.0717027401479</v>
+        <v>423.0717027401477</v>
       </c>
       <c r="N13" t="n">
-        <v>423.0717027401479</v>
+        <v>423.0717027401477</v>
       </c>
       <c r="O13" t="n">
-        <v>223.0720457616785</v>
+        <v>392.6395813021616</v>
       </c>
       <c r="P13" t="n">
-        <v>55.84878446966693</v>
+        <v>55.8487844696669</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.92634889624293</v>
+        <v>15.9263488962429</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>101.3122899435826</v>
       </c>
       <c r="K14" t="n">
-        <v>172.5975266787205</v>
+        <v>172.5975266787204</v>
       </c>
       <c r="L14" t="n">
         <v>229.2186692677834</v>
       </c>
       <c r="M14" t="n">
-        <v>268.0056142240639</v>
+        <v>268.0056142240638</v>
       </c>
       <c r="N14" t="n">
-        <v>274.2296923175205</v>
+        <v>274.2296923175204</v>
       </c>
       <c r="O14" t="n">
-        <v>253.491988070197</v>
+        <v>253.4919880701969</v>
       </c>
       <c r="P14" t="n">
-        <v>202.2355012675594</v>
+        <v>202.2355012675593</v>
       </c>
       <c r="Q14" t="n">
         <v>132.163406449194</v>
       </c>
       <c r="R14" t="n">
-        <v>41.93831657065157</v>
+        <v>41.93831657065151</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>17.36306267510503</v>
       </c>
       <c r="J15" t="n">
-        <v>52.64269571295923</v>
+        <v>105.8691733743161</v>
       </c>
       <c r="K15" t="n">
-        <v>312.8822547663068</v>
+        <v>121.9471800752156</v>
       </c>
       <c r="L15" t="n">
         <v>182.9231633004293</v>
       </c>
       <c r="M15" t="n">
-        <v>221.3814224411311</v>
+        <v>221.381422441131</v>
       </c>
       <c r="N15" t="n">
-        <v>233.1351755995173</v>
+        <v>233.1351755995171</v>
       </c>
       <c r="O15" t="n">
-        <v>423.0717027401479</v>
+        <v>204.1832228023535</v>
       </c>
       <c r="P15" t="n">
-        <v>155.9660557648124</v>
+        <v>155.9660557648123</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.83768844772456</v>
+        <v>423.0717027401477</v>
       </c>
       <c r="R15" t="n">
-        <v>9.352846016244079</v>
+        <v>9.352846016244051</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.82059945039843</v>
+        <v>13.8205994503984</v>
       </c>
       <c r="K16" t="n">
-        <v>54.98157885346525</v>
+        <v>54.98157885346522</v>
       </c>
       <c r="L16" t="n">
-        <v>295.8327063370415</v>
+        <v>82.59168140645448</v>
       </c>
       <c r="M16" t="n">
-        <v>423.0717027401479</v>
+        <v>423.0717027401477</v>
       </c>
       <c r="N16" t="n">
-        <v>423.0717027401479</v>
+        <v>423.0717027401477</v>
       </c>
       <c r="O16" t="n">
         <v>392.6395813021616</v>
       </c>
       <c r="P16" t="n">
-        <v>55.84878446966693</v>
+        <v>269.0898094002537</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.92634889624293</v>
+        <v>15.9263488962429</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>101.3122899435826</v>
       </c>
       <c r="K17" t="n">
-        <v>172.5975266787205</v>
+        <v>172.5975266787204</v>
       </c>
       <c r="L17" t="n">
         <v>229.2186692677834</v>
       </c>
       <c r="M17" t="n">
-        <v>268.0056142240639</v>
+        <v>268.0056142240638</v>
       </c>
       <c r="N17" t="n">
-        <v>274.2296923175205</v>
+        <v>274.2296923175204</v>
       </c>
       <c r="O17" t="n">
-        <v>253.491988070197</v>
+        <v>253.4919880701969</v>
       </c>
       <c r="P17" t="n">
-        <v>202.2355012675594</v>
+        <v>202.2355012675593</v>
       </c>
       <c r="Q17" t="n">
         <v>132.163406449194</v>
       </c>
       <c r="R17" t="n">
-        <v>41.93831657065157</v>
+        <v>41.93831657065151</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>17.36306267510505</v>
+        <v>17.36306267510503</v>
       </c>
       <c r="J18" t="n">
-        <v>52.64269571295923</v>
+        <v>298.7723966974372</v>
       </c>
       <c r="K18" t="n">
-        <v>274.2591325892773</v>
+        <v>121.9471800752156</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0717027401479</v>
+        <v>182.9231633004293</v>
       </c>
       <c r="M18" t="n">
-        <v>221.3814224411311</v>
+        <v>221.381422441131</v>
       </c>
       <c r="N18" t="n">
-        <v>233.1351755995173</v>
+        <v>233.1351755995171</v>
       </c>
       <c r="O18" t="n">
-        <v>204.1832228023536</v>
+        <v>204.1832228023535</v>
       </c>
       <c r="P18" t="n">
-        <v>155.9660557648124</v>
+        <v>213.4385472624166</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.83768844772456</v>
+        <v>83.83768844772453</v>
       </c>
       <c r="R18" t="n">
-        <v>9.352846016244079</v>
+        <v>98.21114548794228</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13.82059945039843</v>
+        <v>13.8205994503984</v>
       </c>
       <c r="K19" t="n">
-        <v>54.98157885346525</v>
+        <v>263.345410758227</v>
       </c>
       <c r="L19" t="n">
-        <v>295.8327063370415</v>
+        <v>399.7422988155687</v>
       </c>
       <c r="M19" t="n">
-        <v>423.0717027401479</v>
+        <v>88.41428179521762</v>
       </c>
       <c r="N19" t="n">
-        <v>423.0717027401479</v>
+        <v>89.52643020583356</v>
       </c>
       <c r="O19" t="n">
         <v>392.6395813021616</v>
       </c>
       <c r="P19" t="n">
-        <v>55.84878446966693</v>
+        <v>319.3815960586751</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.92634889624293</v>
+        <v>108.3228064031904</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>17.36306267510503</v>
       </c>
       <c r="J21" t="n">
-        <v>52.64269571295922</v>
+        <v>298.7723966974373</v>
       </c>
       <c r="K21" t="n">
-        <v>121.9471800752156</v>
+        <v>179.4196715728198</v>
       </c>
       <c r="L21" t="n">
         <v>182.9231633004293</v>
@@ -36214,16 +36214,16 @@
         <v>233.1351755995172</v>
       </c>
       <c r="O21" t="n">
-        <v>257.4097004637109</v>
+        <v>204.1832228023536</v>
       </c>
       <c r="P21" t="n">
         <v>155.9660557648124</v>
       </c>
       <c r="Q21" t="n">
-        <v>423.0717027401479</v>
+        <v>83.83768844772453</v>
       </c>
       <c r="R21" t="n">
-        <v>9.352846016244065</v>
+        <v>98.2111454879423</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>13.82059945039841</v>
+        <v>79.47854251235435</v>
       </c>
       <c r="K22" t="n">
-        <v>54.98157885346524</v>
+        <v>263.345410758227</v>
       </c>
       <c r="L22" t="n">
-        <v>295.8327063370415</v>
+        <v>399.7422988155687</v>
       </c>
       <c r="M22" t="n">
-        <v>423.0717027401479</v>
+        <v>115.1527962402089</v>
       </c>
       <c r="N22" t="n">
-        <v>423.0717027401479</v>
+        <v>89.52643020583359</v>
       </c>
       <c r="O22" t="n">
         <v>392.6395813021616</v>
       </c>
       <c r="P22" t="n">
-        <v>55.84878446966692</v>
+        <v>319.3815960586751</v>
       </c>
       <c r="Q22" t="n">
         <v>15.9263488962429</v>
@@ -36439,7 +36439,7 @@
         <v>306.8530616732681</v>
       </c>
       <c r="K24" t="n">
-        <v>135.7583235882914</v>
+        <v>334.8001750556662</v>
       </c>
       <c r="L24" t="n">
         <v>201.4939501547308</v>
@@ -36457,10 +36457,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.9390099739038</v>
+        <v>94.75545797822838</v>
       </c>
       <c r="R24" t="n">
-        <v>103.5214789635406</v>
+        <v>14.66317949184234</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K25" t="n">
         <v>63.31240602137349</v>
@@ -36530,10 +36530,10 @@
         <v>435.8874471104327</v>
       </c>
       <c r="O25" t="n">
-        <v>339.4296750618182</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P25" t="n">
-        <v>64.52118858874761</v>
+        <v>66.83403755381632</v>
       </c>
       <c r="Q25" t="n">
         <v>21.93067198259682</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K27" t="n">
         <v>135.7583235882914</v>
       </c>
       <c r="L27" t="n">
-        <v>471.8000591907775</v>
+        <v>201.4939501547308</v>
       </c>
       <c r="M27" t="n">
         <v>243.0526547726732</v>
@@ -36688,16 +36688,16 @@
         <v>255.379980966111</v>
       </c>
       <c r="O27" t="n">
-        <v>419.1637756871488</v>
+        <v>224.5328738373055</v>
       </c>
       <c r="P27" t="n">
         <v>172.2984447772875</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.75545797822838</v>
+        <v>204.9390099739047</v>
       </c>
       <c r="R27" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>63.31240602137349</v>
       </c>
       <c r="L28" t="n">
-        <v>149.1829267631447</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M28" t="n">
         <v>448.1052379230254</v>
@@ -36770,7 +36770,7 @@
         <v>402.774769158706</v>
       </c>
       <c r="P28" t="n">
-        <v>328.0540001777558</v>
+        <v>66.83403755381632</v>
       </c>
       <c r="Q28" t="n">
         <v>21.93067198259682</v>
@@ -36855,7 +36855,7 @@
         <v>149.4258602996782</v>
       </c>
       <c r="R29" t="n">
-        <v>51.97975715298553</v>
+        <v>51.97975715298516</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>135.7583235882914</v>
       </c>
       <c r="L30" t="n">
-        <v>311.6775021504067</v>
+        <v>201.4939501547308</v>
       </c>
       <c r="M30" t="n">
         <v>243.0526547726732</v>
@@ -36931,7 +36931,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.75545797822838</v>
+        <v>204.9390099739042</v>
       </c>
       <c r="R30" t="n">
         <v>103.5214789635406</v>
@@ -36995,7 +36995,7 @@
         <v>63.31240602137349</v>
       </c>
       <c r="L31" t="n">
-        <v>149.1829267631447</v>
+        <v>285.1662835987822</v>
       </c>
       <c r="M31" t="n">
         <v>448.1052379230254</v>
@@ -37007,10 +37007,10 @@
         <v>402.774769158706</v>
       </c>
       <c r="P31" t="n">
-        <v>328.0540001777558</v>
+        <v>64.52118858874761</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.93067198259682</v>
+        <v>149.4801267359677</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>114.8797142585463</v>
       </c>
       <c r="K32" t="n">
-        <v>192.9315787349165</v>
+        <v>192.9315787349169</v>
       </c>
       <c r="L32" t="n">
         <v>254.4448589033731</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72336068879013</v>
+        <v>117.5349992554538</v>
       </c>
       <c r="K33" t="n">
         <v>135.7583235882914</v>
       </c>
       <c r="L33" t="n">
-        <v>202.7436974624821</v>
+        <v>201.4939501547308</v>
       </c>
       <c r="M33" t="n">
         <v>243.0526547726732</v>
       </c>
       <c r="N33" t="n">
-        <v>471.8000591907776</v>
+        <v>255.379980966111</v>
       </c>
       <c r="O33" t="n">
-        <v>471.8000591907776</v>
+        <v>224.5328738373055</v>
       </c>
       <c r="P33" t="n">
-        <v>172.2984447772875</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="Q33" t="n">
         <v>94.75545797822838</v>
       </c>
       <c r="R33" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>63.31240602137349</v>
       </c>
       <c r="L34" t="n">
-        <v>149.1829267631449</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M34" t="n">
         <v>448.1052379230254</v>
@@ -37244,10 +37244,10 @@
         <v>402.774769158706</v>
       </c>
       <c r="P34" t="n">
-        <v>328.0540001777558</v>
+        <v>64.52118858874761</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.93067198259682</v>
+        <v>24.24352094766517</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q36" t="n">
-        <v>204.9390099739042</v>
+        <v>204.9390099739038</v>
       </c>
       <c r="R36" t="n">
         <v>103.5214789635406</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K37" t="n">
         <v>63.31240602137349</v>
@@ -37478,10 +37478,10 @@
         <v>435.8874471104327</v>
       </c>
       <c r="O37" t="n">
-        <v>339.4296750618187</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P37" t="n">
-        <v>64.52118858874761</v>
+        <v>66.83403755381539</v>
       </c>
       <c r="Q37" t="n">
         <v>21.93067198259682</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.3078294018249</v>
+        <v>0.5423709677871287</v>
       </c>
       <c r="J39" t="n">
         <v>306.8530616732681</v>
@@ -37642,10 +37642,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.9390099739038</v>
+        <v>313.5627678796408</v>
       </c>
       <c r="R39" t="n">
-        <v>103.5214789635406</v>
+        <v>14.66317949184234</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.89014897190253</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K40" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L40" t="n">
-        <v>285.1662835987817</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M40" t="n">
-        <v>448.1052379230254</v>
+        <v>99.65437982778744</v>
       </c>
       <c r="N40" t="n">
-        <v>435.8874471104327</v>
+        <v>121.5471128616428</v>
       </c>
       <c r="O40" t="n">
         <v>402.774769158706</v>
       </c>
       <c r="P40" t="n">
-        <v>64.52118858874761</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q40" t="n">
         <v>149.4801267359677</v>
@@ -37879,10 +37879,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.704468407942</v>
+        <v>313.5627678796404</v>
       </c>
       <c r="R42" t="n">
-        <v>103.5214789635406</v>
+        <v>14.66317949184234</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.89014897190253</v>
+        <v>21.20299793697099</v>
       </c>
       <c r="K43" t="n">
-        <v>120.3497761436362</v>
+        <v>63.31240602137349</v>
       </c>
       <c r="L43" t="n">
         <v>410.4028893870845</v>
@@ -37952,10 +37952,10 @@
         <v>435.8874471104327</v>
       </c>
       <c r="O43" t="n">
-        <v>84.51743641250346</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P43" t="n">
-        <v>328.0540001777558</v>
+        <v>64.52118858874761</v>
       </c>
       <c r="Q43" t="n">
         <v>21.93067198259682</v>
@@ -38116,10 +38116,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q45" t="n">
-        <v>313.5627678796404</v>
+        <v>224.7044684079415</v>
       </c>
       <c r="R45" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.89014897190253</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K46" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L46" t="n">
-        <v>285.1662835987822</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M46" t="n">
-        <v>448.1052379230254</v>
+        <v>99.65437982778744</v>
       </c>
       <c r="N46" t="n">
-        <v>435.8874471104327</v>
+        <v>121.5471128616418</v>
       </c>
       <c r="O46" t="n">
         <v>402.774769158706</v>
       </c>
       <c r="P46" t="n">
-        <v>64.52118858874761</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q46" t="n">
         <v>149.4801267359677</v>
